--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capobianco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capobianco\Desktop\Progetto Ltw\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61470F58-212B-4016-BFD6-C487788A0A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16610902-94CF-44F3-BBE6-9827BE42D965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B196746-07DA-4CED-8518-28D76236140F}"/>
   </bookViews>
@@ -186,7 +186,6 @@
     <definedName name="ZonaArcheologica">'Municipio I'!$H:$H</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -196,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>.</t>
   </si>
@@ -211,13 +210,103 @@
   </si>
   <si>
     <t>200 gradi</t>
+  </si>
+  <si>
+    <t>Pizza Europa (a viale Europa)</t>
+  </si>
+  <si>
+    <t>GianFornaio</t>
+  </si>
+  <si>
+    <t>Nero lab</t>
+  </si>
+  <si>
+    <t>Baccano</t>
+  </si>
+  <si>
+    <t>Prosciutteria Cantina dei Papi</t>
+  </si>
+  <si>
+    <t>Plant 42</t>
+  </si>
+  <si>
+    <t>Il Veneziano</t>
+  </si>
+  <si>
+    <t>Birra e Spritz</t>
+  </si>
+  <si>
+    <t>Mirto</t>
+  </si>
+  <si>
+    <t>I meet</t>
+  </si>
+  <si>
+    <t>Humus Bistrot</t>
+  </si>
+  <si>
+    <t>Black Market</t>
+  </si>
+  <si>
+    <t>Up sunset bar</t>
+  </si>
+  <si>
+    <t>Salotto 42</t>
+  </si>
+  <si>
+    <t>Cul de Sac</t>
+  </si>
+  <si>
+    <t>Enoteca il Piccolo</t>
+  </si>
+  <si>
+    <t>Taba Café Campo de' Fiori</t>
+  </si>
+  <si>
+    <t>Eretico bistrot</t>
+  </si>
+  <si>
+    <t>Pigna Enoteca di Sardegna</t>
+  </si>
+  <si>
+    <t>Martin Bistrò</t>
+  </si>
+  <si>
+    <t>Bar MART.in.</t>
+  </si>
+  <si>
+    <t>Freeda</t>
+  </si>
+  <si>
+    <t>Dafne Garden Cafè</t>
+  </si>
+  <si>
+    <t>Borgo Ripa</t>
+  </si>
+  <si>
+    <t>L'Oasi della Birra</t>
+  </si>
+  <si>
+    <t>Meccanismo</t>
+  </si>
+  <si>
+    <t>VinAllegro</t>
+  </si>
+  <si>
+    <t>Freni e frizioni</t>
+  </si>
+  <si>
+    <t>Mater Pantheon</t>
+  </si>
+  <si>
+    <t>Polpetta Trastevere</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,9 +315,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,10 +357,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -573,29 +677,133 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096AEE50-F225-4C34-A52F-64212300F806}">
   <sheetPr codeName="Foglio1"/>
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="25.77734375" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="I1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -701,13 +909,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="25.77734375" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+      <c r="A1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -747,10 +958,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F63257-03FF-4729-B684-5AA863570332}">
   <sheetPr codeName="Foglio5"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="D19" sqref="D1:D1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -760,6 +971,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -813,14 +1049,30 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD63F1E5-72BC-48B9-86F1-7BC00BD6D3E5}">
   <sheetPr codeName="Foglio9"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capobianco\Desktop\Progetto Ltw\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16610902-94CF-44F3-BBE6-9827BE42D965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E71975-21A0-43B9-9737-54EEF87EAC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B196746-07DA-4CED-8518-28D76236140F}"/>
   </bookViews>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>.</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Bar MART.in.</t>
   </si>
   <si>
-    <t>Freeda</t>
-  </si>
-  <si>
     <t>Dafne Garden Cafè</t>
   </si>
   <si>
@@ -300,6 +297,111 @@
   </si>
   <si>
     <t>Polpetta Trastevere</t>
+  </si>
+  <si>
+    <t>Il Petruccino</t>
+  </si>
+  <si>
+    <t>Makasar Bistròt</t>
+  </si>
+  <si>
+    <t>Maritozzo Rosso</t>
+  </si>
+  <si>
+    <t>Gatsby Cafè</t>
+  </si>
+  <si>
+    <t>Apotheke Cocktail Bar</t>
+  </si>
+  <si>
+    <t>Hoppiness</t>
+  </si>
+  <si>
+    <t>Downing Square Tartare Bar</t>
+  </si>
+  <si>
+    <t>Lumen Cocktails &amp; Cuisine</t>
+  </si>
+  <si>
+    <t>La Caramella</t>
+  </si>
+  <si>
+    <t>Coming out</t>
+  </si>
+  <si>
+    <t>Colosseum Bar</t>
+  </si>
+  <si>
+    <t>Giulia&amp;Sisto Roma</t>
+  </si>
+  <si>
+    <t>The Court</t>
+  </si>
+  <si>
+    <t>Tram Depot Testaccio</t>
+  </si>
+  <si>
+    <t>Il Testaccino</t>
+  </si>
+  <si>
+    <t>Il Gianfornaio - Testaccio</t>
+  </si>
+  <si>
+    <t>Rosso Eat Drink Stay</t>
+  </si>
+  <si>
+    <t>Casa Manfredi</t>
+  </si>
+  <si>
+    <t>Quintessenza</t>
+  </si>
+  <si>
+    <t>Prato Chiosco</t>
+  </si>
+  <si>
+    <t>Etilico</t>
+  </si>
+  <si>
+    <t>Cantinero</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Bolle Cicchetteria di Quartiere</t>
+  </si>
+  <si>
+    <t>TBeB</t>
+  </si>
+  <si>
+    <t>Terrazza Borromini</t>
+  </si>
+  <si>
+    <t>Ozio Restaurant</t>
+  </si>
+  <si>
+    <t>Freeda Roma</t>
+  </si>
+  <si>
+    <t>Vinoteca Tempere</t>
+  </si>
+  <si>
+    <t>Rooftop Spritzeria Monti</t>
+  </si>
+  <si>
+    <t>Mazzini Caffetteria - Fergui S.r.l.s.</t>
+  </si>
+  <si>
+    <t>Gran Caffè Mazzini</t>
+  </si>
+  <si>
+    <t>Tonico Café</t>
   </si>
 </sst>
 </file>
@@ -677,10 +779,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096AEE50-F225-4C34-A52F-64212300F806}">
   <sheetPr codeName="Foglio1"/>
-  <dimension ref="A1:K20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" activeCellId="1" sqref="K7 K5:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -695,6 +797,9 @@
       <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
@@ -706,6 +811,12 @@
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -714,42 +825,72 @@
       <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
+      <c r="I4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="I9" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -758,7 +899,7 @@
     </row>
     <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -778,32 +919,127 @@
     </row>
     <row r="15" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1019,14 +1255,30 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535F64DF-6A59-4DE7-99D9-F3A1B7A7F8A7}">
   <sheetPr codeName="Foglio7"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="Q1:Q3"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="17:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="17:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="17:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,180 +8,201 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capobianco\Desktop\Progetto Ltw\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E71975-21A0-43B9-9737-54EEF87EAC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCEF767-E2EF-4DCD-A3A2-4D7CE44ED0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B196746-07DA-4CED-8518-28D76236140F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="12" xr2:uid="{0B196746-07DA-4CED-8518-28D76236140F}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="15" r:id="rId1"/>
     <sheet name="Municipio II" sheetId="2" r:id="rId2"/>
-    <sheet name="Municipio III" sheetId="3" r:id="rId3"/>
-    <sheet name="Municipio IV" sheetId="4" r:id="rId4"/>
-    <sheet name="Municipio V" sheetId="5" r:id="rId5"/>
-    <sheet name="Municipio VI" sheetId="6" r:id="rId6"/>
-    <sheet name="Municipio VII" sheetId="7" r:id="rId7"/>
-    <sheet name="Municipio VIII" sheetId="8" r:id="rId8"/>
-    <sheet name="Municipio IX" sheetId="9" r:id="rId9"/>
-    <sheet name="Municipio X" sheetId="10" r:id="rId10"/>
-    <sheet name="Municipio XI" sheetId="11" r:id="rId11"/>
-    <sheet name="Municipio XII" sheetId="12" r:id="rId12"/>
-    <sheet name="Municipio XIII" sheetId="13" r:id="rId13"/>
+    <sheet name="Municipio III" sheetId="17" r:id="rId3"/>
+    <sheet name="Municipio IV" sheetId="18" r:id="rId4"/>
+    <sheet name="Municipio V" sheetId="19" r:id="rId5"/>
+    <sheet name="Municipio VI" sheetId="20" r:id="rId6"/>
+    <sheet name="Municipio VII" sheetId="21" r:id="rId7"/>
+    <sheet name="Municipio VIII" sheetId="22" r:id="rId8"/>
+    <sheet name="Municipio IX" sheetId="23" r:id="rId9"/>
+    <sheet name="Municipio X" sheetId="24" r:id="rId10"/>
+    <sheet name="Municipio XI" sheetId="25" r:id="rId11"/>
+    <sheet name="Municipio XII" sheetId="26" r:id="rId12"/>
+    <sheet name="Municipio XIII" sheetId="27" r:id="rId13"/>
     <sheet name="Municipio XIV" sheetId="14" r:id="rId14"/>
     <sheet name="Municipio XV" sheetId="1" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="AciliaNord">'Municipio X'!$B:$B</definedName>
-    <definedName name="AciliaSud">'Municipio X'!$C:$C</definedName>
+    <definedName name="AciliaNord">#REF!</definedName>
+    <definedName name="AciliaSud">#REF!</definedName>
     <definedName name="Acquatraversa">'Municipio XV'!$B:$B</definedName>
-    <definedName name="AcquaVergine">'Municipio VI'!$C:$C</definedName>
-    <definedName name="AeroportodellUrbe">'Municipio III'!$J:$J</definedName>
-    <definedName name="Alessandrina">'Municipio V'!$F:$F</definedName>
-    <definedName name="AppiaAnticaNord">'Municipio VIII'!$H:$H</definedName>
-    <definedName name="AppiaAnticaSud">'Municipio VIII'!$I:$I</definedName>
-    <definedName name="Appio">'Municipio VII'!$E:$E</definedName>
-    <definedName name="AppioClaudio">'Municipio VII'!$H:$H</definedName>
-    <definedName name="AurelioNord">'Municipio XIII'!$D:$D</definedName>
-    <definedName name="AurelioSud">'Municipio XIII'!$A:$A</definedName>
+    <definedName name="AcquaVergine">#REF!</definedName>
+    <definedName name="AeroportodellUrbe">#REF!</definedName>
+    <definedName name="Alessandrina">#REF!</definedName>
+    <definedName name="Alessandrino">'Municipio V'!$C:$C</definedName>
+    <definedName name="AppiaAnticaNord">#REF!</definedName>
+    <definedName name="AppiaAnticaSud">#REF!</definedName>
+    <definedName name="Appio">#REF!</definedName>
+    <definedName name="Appio_Claudio">'Municipio VII'!$C:$C</definedName>
+    <definedName name="Appio_Latino7">'Municipio VII'!$F:$F</definedName>
+    <definedName name="Appio_Latino8">'Municipio VIII'!$A:$A</definedName>
+    <definedName name="Appio_Pignatelli">'Municipio VIII'!$C:$C</definedName>
+    <definedName name="AppioClaudio">#REF!</definedName>
+    <definedName name="Ardeatino">'Municipio VIII'!$D:$D</definedName>
+    <definedName name="Aurelio">'Municipio XIII'!$A:$A</definedName>
+    <definedName name="AurelioNord">#REF!</definedName>
+    <definedName name="AurelioSud">#REF!</definedName>
     <definedName name="Aventino">'Municipio I'!$C:$C</definedName>
-    <definedName name="Barcaccia">'Municipio VII'!$O:$O</definedName>
-    <definedName name="Boccea">'Municipio XIII'!$F:$F</definedName>
-    <definedName name="Borghesiana">'Municipio VI'!$F:$F</definedName>
-    <definedName name="Bufalotta">'Municipio III'!$L:$L</definedName>
-    <definedName name="BuonPastore">'Municipio XII'!$B:$B</definedName>
-    <definedName name="CasalBertone">'Municipio IV'!$A:$A</definedName>
-    <definedName name="CasalBoccone">'Municipio III'!$F:$F</definedName>
-    <definedName name="CasalBruciato">'Municipio IV'!$B:$B</definedName>
-    <definedName name="CasalDePazzi">'Municipio IV'!$H:$H</definedName>
-    <definedName name="CasalottidiBoccea">'Municipio XIII'!$E:$E</definedName>
-    <definedName name="CasettaMistica">'Municipio V'!$J:$J</definedName>
-    <definedName name="Casilino">'Municipio V'!$B:$B</definedName>
-    <definedName name="CastelFusano">'Municipio X'!$H:$H</definedName>
+    <definedName name="Barcaccia">#REF!</definedName>
+    <definedName name="Boccea">#REF!</definedName>
+    <definedName name="Borghesiana">'Municipio VII'!$D:$D</definedName>
+    <definedName name="Bufalotta">#REF!</definedName>
+    <definedName name="BuonPastore">#REF!</definedName>
+    <definedName name="CasalBertone">#REF!</definedName>
+    <definedName name="CasalBoccone">#REF!</definedName>
+    <definedName name="CasalBruciato">#REF!</definedName>
+    <definedName name="CasalDePazzi">#REF!</definedName>
+    <definedName name="CasalottidiBoccea">#REF!</definedName>
+    <definedName name="CasettaMistica">#REF!</definedName>
+    <definedName name="Casilino">#REF!</definedName>
+    <definedName name="CastelFusano">#REF!</definedName>
     <definedName name="Castelluccia">'Municipio XIV'!$G:$G</definedName>
-    <definedName name="CastelPorziano">'Municipio X'!$J:$J</definedName>
-    <definedName name="CastelRomano">'Municipio IX'!$K:$K</definedName>
-    <definedName name="Cecchignola">'Municipio IX'!$E:$E</definedName>
+    <definedName name="CastelPorziano">#REF!</definedName>
+    <definedName name="CastelRomano">#REF!</definedName>
+    <definedName name="Cecchignola">#REF!</definedName>
     <definedName name="Celio">'Municipio I'!$G:$G</definedName>
-    <definedName name="Centocelle">'Municipio V'!$E:$E</definedName>
+    <definedName name="Centocelle">#REF!</definedName>
     <definedName name="CentroStorico">'Municipio I'!$A:$A</definedName>
     <definedName name="Cesano">'Municipio XV'!$L:$L</definedName>
-    <definedName name="Ciampino">'Municipio VII'!$Q:$Q</definedName>
-    <definedName name="ColliPortuensi">'Municipio XII'!$A:$A</definedName>
-    <definedName name="ConcadOro">'Municipio III'!$G:$G</definedName>
-    <definedName name="Corviale">'Municipio XI'!$F:$F</definedName>
-    <definedName name="Decima">'Municipio IX'!$I:$I</definedName>
+    <definedName name="Ciampino">#REF!</definedName>
+    <definedName name="Collatino">'Municipio IV'!$C:$C</definedName>
+    <definedName name="ColliPortuensi">#REF!</definedName>
+    <definedName name="ConcadOro">#REF!</definedName>
+    <definedName name="Corviale">#REF!</definedName>
+    <definedName name="Decima">#REF!</definedName>
     <definedName name="DellaVittoria">'Municipio I'!$J:$J</definedName>
-    <definedName name="DonBosco">'Municipio VII'!$G:$G</definedName>
+    <definedName name="Don_Bosco">'Municipio VII'!$B:$B</definedName>
+    <definedName name="DonBosco">#REF!</definedName>
     <definedName name="Eroi">'Municipio I'!$K:$K</definedName>
     <definedName name="Esquilino">'Municipio I'!$E:$E</definedName>
-    <definedName name="Eur">'Municipio IX'!$A:$A</definedName>
+    <definedName name="Eur">#REF!</definedName>
+    <definedName name="Europa">'Municipio IX'!$A:$A</definedName>
     <definedName name="Farnesina">'Municipio XV'!$D:$D</definedName>
-    <definedName name="Fidene">'Municipio III'!$D:$D</definedName>
-    <definedName name="Flaminio">'Municipio II'!$C:$C</definedName>
-    <definedName name="Fogaccia">'Municipio XIII'!$C:$C</definedName>
+    <definedName name="Fidene">#REF!</definedName>
+    <definedName name="Flaminio">'Municipio II'!$B:$B</definedName>
+    <definedName name="Fogaccia">#REF!</definedName>
     <definedName name="ForoItalico">'Municipio XV'!$N:$N</definedName>
-    <definedName name="Garbatella">'Municipio VIII'!$C:$C</definedName>
-    <definedName name="Gianicolese">'Municipio XII'!$D:$D</definedName>
-    <definedName name="GiardinettiTorVergata">'Municipio VI'!$B:$B</definedName>
+    <definedName name="Garbatella">#REF!</definedName>
+    <definedName name="Gianicolense">'Municipio XII'!$A:$A</definedName>
+    <definedName name="Gianicolese">#REF!</definedName>
+    <definedName name="GiardinettiTorVergata">#REF!</definedName>
+    <definedName name="Giuliano_Dalmata">'Municipio IX'!$B:$B</definedName>
     <definedName name="Giustiniana">'Municipio XV'!$G:$G</definedName>
-    <definedName name="Gordiani">'Municipio V'!$D:$D</definedName>
-    <definedName name="Gregna">'Municipio VII'!$N:$N</definedName>
-    <definedName name="GrottaPerfetta">'Municipio VIII'!$G:$G</definedName>
+    <definedName name="Gordiani">#REF!</definedName>
+    <definedName name="Gregna">#REF!</definedName>
+    <definedName name="GrottaPerfetta">#REF!</definedName>
     <definedName name="GrottaRossaEst">'Municipio XV'!$F:$F</definedName>
     <definedName name="GrottaRossaOvest">'Municipio XV'!$E:$E</definedName>
-    <definedName name="Infernetto">'Municipio X'!$I:$I</definedName>
+    <definedName name="Infernetto">#REF!</definedName>
     <definedName name="Labaro">'Municipio XV'!$K:$K</definedName>
-    <definedName name="LaRustica">'Municipio V'!$H:$H</definedName>
+    <definedName name="LaRustica">#REF!</definedName>
     <definedName name="LaStorta">'Municipio XV'!$H:$H</definedName>
-    <definedName name="Latino">'Municipio VII'!$F:$F</definedName>
-    <definedName name="Laurentino">'Municipio IX'!$D:$D</definedName>
-    <definedName name="LucreziaRomana">'Municipio VII'!$K:$K</definedName>
-    <definedName name="Lunghezza">'Municipio VI'!$D:$D</definedName>
-    <definedName name="Magliana">'Municipio XI'!$E:$E</definedName>
-    <definedName name="Malafede">'Municipio X'!$A:$A</definedName>
-    <definedName name="Marconi">'Municipio XI'!$A:$A</definedName>
+    <definedName name="Latino">#REF!</definedName>
+    <definedName name="Laurentino">#REF!</definedName>
+    <definedName name="LucreziaRomana">#REF!</definedName>
+    <definedName name="Lunghezza">#REF!</definedName>
+    <definedName name="Magliana">#REF!</definedName>
+    <definedName name="Malafede">#REF!</definedName>
+    <definedName name="Marconi">#REF!</definedName>
     <definedName name="Martignano">'Municipio XV'!$M:$M</definedName>
-    <definedName name="Massimina">'Municipio XII'!$E:$E</definedName>
+    <definedName name="Massimina">#REF!</definedName>
     <definedName name="MedagliadOro">'Municipio XIV'!$A:$A</definedName>
-    <definedName name="MezzoCammino">'Municipio IX'!$F:$F</definedName>
-    <definedName name="MonteSacro">'Municipio III'!$A:$A</definedName>
-    <definedName name="MonteSacroAlto">'Municipio III'!$C:$C</definedName>
-    <definedName name="Morena">'Municipio VII'!$P:$P</definedName>
-    <definedName name="Navigatori">'Municipio VIII'!$D:$D</definedName>
-    <definedName name="Nomentano">'Municipio II'!$H:$H</definedName>
-    <definedName name="Omo">'Municipio V'!$K:$K</definedName>
-    <definedName name="OsteriadelCurato">'Municipio VII'!$L:$L</definedName>
-    <definedName name="OstiaAntica">'Municipio X'!$E:$E</definedName>
-    <definedName name="OstiaNord">'Municipio X'!$F:$F</definedName>
-    <definedName name="OstiaSud">'Municipio X'!$G:$G</definedName>
-    <definedName name="Ostiense">'Municipio VIII'!$A:$A</definedName>
+    <definedName name="MezzoCammino">#REF!</definedName>
+    <definedName name="Montesacro">'Municipio III'!$A:$A</definedName>
+    <definedName name="MonteSacroAlto">#REF!</definedName>
+    <definedName name="Montespaccato">'Municipio XIII'!$B:$B</definedName>
+    <definedName name="Morena">#REF!</definedName>
+    <definedName name="Navigatori">#REF!</definedName>
+    <definedName name="Nomentano">'Municipio II'!$E:$E</definedName>
+    <definedName name="NoName">'Municipio VII'!$E:$E</definedName>
+    <definedName name="Omo">#REF!</definedName>
+    <definedName name="OsteriadelCurato">#REF!</definedName>
+    <definedName name="OstiaAntica">#REF!</definedName>
+    <definedName name="OstiaNord">#REF!</definedName>
+    <definedName name="OstiaSud">#REF!</definedName>
+    <definedName name="Ostiense">'Municipio VIII'!$B:$B</definedName>
     <definedName name="Ottavia">'Municipio XIV'!$C:$C</definedName>
-    <definedName name="Palocco">'Municipio X'!$D:$D</definedName>
-    <definedName name="PantanodiGrano">'Municipio XII'!$F:$F</definedName>
-    <definedName name="Parioli" localSheetId="1">'Municipio II'!$B:$B</definedName>
-    <definedName name="PiandueTorri">'Municipio XI'!$C:$C</definedName>
-    <definedName name="Pietralata">'Municipio IV'!$G:$G</definedName>
-    <definedName name="Pignatelli">'Municipio VII'!$J:$J</definedName>
+    <definedName name="Palocco">#REF!</definedName>
+    <definedName name="PantanodiGrano">#REF!</definedName>
+    <definedName name="Parioli" localSheetId="1">'Municipio II'!$A:$A</definedName>
+    <definedName name="PiandueTorri">#REF!</definedName>
+    <definedName name="Pietralata">'Municipio IV'!$B:$B</definedName>
+    <definedName name="Pignatelli">#REF!</definedName>
+    <definedName name="Pinciano">'Municipio II'!$G:$G</definedName>
     <definedName name="Pineto">'Municipio XIV'!$F:$F</definedName>
-    <definedName name="Pisana">'Municipio XII'!$C:$C</definedName>
-    <definedName name="PonteGaleria">'Municipio XI'!$G:$G</definedName>
-    <definedName name="PortaMedaglia">'Municipio IX'!$J:$J</definedName>
-    <definedName name="Portuense">'Municipio XI'!$B:$B</definedName>
+    <definedName name="Pisana">#REF!</definedName>
+    <definedName name="Ponte_Mammolo">'Municipio IV'!$D:$D</definedName>
+    <definedName name="PonteGaleria">#REF!</definedName>
+    <definedName name="PortaMedaglia">#REF!</definedName>
+    <definedName name="Portuense">'Municipio XI'!$A:$A</definedName>
     <definedName name="Prati">'Municipio I'!$I:$I</definedName>
+    <definedName name="Prenestino_Centocelle">'Municipio V'!$B:$B</definedName>
+    <definedName name="Prenestino_Labicano">'Municipio V'!$A:$A</definedName>
     <definedName name="PrimaPorta">'Municipio XV'!$J:$J</definedName>
     <definedName name="Primavalle">'Municipio XIV'!$B:$B</definedName>
-    <definedName name="Quadraro">'Municipio V'!$C:$C</definedName>
-    <definedName name="QuartoMiglio">'Municipio VII'!$I:$I</definedName>
-    <definedName name="Romanina">'Municipio VII'!$M:$M</definedName>
-    <definedName name="SaccoPastore">'Municipio III'!$H:$H</definedName>
-    <definedName name="Salario">'Municipio II'!$D:$D</definedName>
-    <definedName name="SanBasilio">'Municipio IV'!$E:$E</definedName>
+    <definedName name="Prova">'Municipio II'!$A:$A</definedName>
+    <definedName name="Prova2">'Municipio II'!$G:$G</definedName>
+    <definedName name="Quadraro">#REF!</definedName>
+    <definedName name="QuartoMiglio">#REF!</definedName>
+    <definedName name="Romanina">#REF!</definedName>
+    <definedName name="SaccoPastore">#REF!</definedName>
+    <definedName name="Salario">'Municipio II'!$C:$C</definedName>
+    <definedName name="San_Basilio">'Municipio IV'!$E:$E</definedName>
+    <definedName name="SanBasilio">#REF!</definedName>
     <definedName name="SanLorenzo">'Municipio II'!$I:$I</definedName>
     <definedName name="SantaCornelia">'Municipio XV'!$I:$I</definedName>
-    <definedName name="SantAlessandro">'Municipio IV'!$I:$I</definedName>
+    <definedName name="SantAlessandro">#REF!</definedName>
     <definedName name="SantaMariadellaPieta">'Municipio XIV'!$D:$D</definedName>
     <definedName name="SantaMariadiGaleria">'Municipio XIV'!$H:$H</definedName>
-    <definedName name="SantaPalomba">'Municipio IX'!$L:$L</definedName>
-    <definedName name="SanVittorino">'Municipio VI'!$G:$G</definedName>
-    <definedName name="Serpentara">'Municipio III'!$E:$E</definedName>
-    <definedName name="Settebagni">'Municipio III'!$K:$K</definedName>
-    <definedName name="Settecamini">'Municipio IV'!$J:$J</definedName>
-    <definedName name="Spinaceto">'Municipio IX'!$G:$G</definedName>
+    <definedName name="SantaPalomba">#REF!</definedName>
+    <definedName name="SanVittorino">#REF!</definedName>
+    <definedName name="Serpentara">#REF!</definedName>
+    <definedName name="Settebagni">#REF!</definedName>
+    <definedName name="Settecamini">#REF!</definedName>
+    <definedName name="Spinaceto">#REF!</definedName>
+    <definedName name="Talenti">'Municipio III'!$B:$B</definedName>
     <definedName name="Testaccio">'Municipio I'!$D:$D</definedName>
-    <definedName name="TiburtinoNord">'Municipio IV'!$C:$C</definedName>
-    <definedName name="TIburtinoSud">'Municipio IV'!$D:$D</definedName>
+    <definedName name="Tiburtino_Policlinico">'Municipio II'!$F:$F</definedName>
+    <definedName name="Tiburtino_SanLorenzo">'Municipio IV'!$A:$A</definedName>
+    <definedName name="TiburtinoNord">#REF!</definedName>
+    <definedName name="TIburtinoSud">#REF!</definedName>
     <definedName name="TombadiNerone">'Municipio XV'!$C:$C</definedName>
-    <definedName name="TorCervara">'Municipio IV'!$F:$F</definedName>
+    <definedName name="TorCervara">#REF!</definedName>
     <definedName name="TordiQuinto">'Municipio XV'!$A:$A</definedName>
-    <definedName name="TordiValle">'Municipio IX'!$M:$M</definedName>
-    <definedName name="TorFiscale">'Municipio VII'!$D:$D</definedName>
-    <definedName name="TorMarancia">'Municipio VIII'!$E:$E</definedName>
-    <definedName name="Torpignattara">'Municipio V'!$A:$A</definedName>
-    <definedName name="TorreAngela">'Municipio VI'!$E:$E</definedName>
-    <definedName name="TorreMaura">'Municipio VI'!$A:$A</definedName>
-    <definedName name="Torrespaccata">'Municipio VII'!$A:$A</definedName>
-    <definedName name="Torrino">'Municipio IX'!$C:$C</definedName>
-    <definedName name="TorSanGiovanni">'Municipio III'!$M:$M</definedName>
-    <definedName name="TorSapienza">'Municipio V'!$G:$G</definedName>
-    <definedName name="TorTreTeste">'Municipio V'!$I:$I</definedName>
+    <definedName name="TordiValle">#REF!</definedName>
+    <definedName name="TorFiscale">#REF!</definedName>
+    <definedName name="TorMarancia">#REF!</definedName>
+    <definedName name="Torpignattara">#REF!</definedName>
+    <definedName name="TorreAngela">#REF!</definedName>
+    <definedName name="TorreMaura">#REF!</definedName>
+    <definedName name="Torrespaccata">#REF!</definedName>
+    <definedName name="Torrino">#REF!</definedName>
+    <definedName name="TorSanGiovanni">#REF!</definedName>
+    <definedName name="TorSapienza">#REF!</definedName>
+    <definedName name="TorTreTeste">#REF!</definedName>
     <definedName name="Trastevere">'Municipio I'!$B:$B</definedName>
-    <definedName name="TreFontane">'Municipio VIII'!$F:$F</definedName>
-    <definedName name="Trieste">'Municipio II'!$E:$E</definedName>
+    <definedName name="TreFontane">#REF!</definedName>
+    <definedName name="Trieste">'Municipio II'!$D:$D</definedName>
     <definedName name="Trionfale">'Municipio XIV'!$E:$E</definedName>
-    <definedName name="Trullo">'Municipio XI'!$D:$D</definedName>
-    <definedName name="Tufello">'Municipio III'!$I:$I</definedName>
-    <definedName name="TuscolanoNord">'Municipio VII'!$B:$B</definedName>
-    <definedName name="TuscolanoSud">'Municipio VII'!$C:$C</definedName>
+    <definedName name="Trullo">#REF!</definedName>
+    <definedName name="Tufello">#REF!</definedName>
+    <definedName name="Tuscolano">'Municipio VII'!$A:$A</definedName>
+    <definedName name="TuscolanoNord">#REF!</definedName>
+    <definedName name="TuscolanoSud">#REF!</definedName>
     <definedName name="Universita">'Municipio II'!$J:$J</definedName>
-    <definedName name="ValCannuta">'Municipio XIII'!$B:$B</definedName>
-    <definedName name="ValcoSanPaolo">'Municipio VIII'!$B:$B</definedName>
-    <definedName name="ValleranoCasteldiLeva">'Municipio IX'!$H:$H</definedName>
-    <definedName name="ValMelaina">'Municipio III'!$B:$B</definedName>
+    <definedName name="ValCannuta">#REF!</definedName>
+    <definedName name="ValcoSanPaolo">#REF!</definedName>
+    <definedName name="ValleranoCasteldiLeva">#REF!</definedName>
+    <definedName name="ValMelaina">#REF!</definedName>
     <definedName name="Verano">'Municipio II'!$K:$K</definedName>
-    <definedName name="VillaAda">'Municipio II'!$G:$G</definedName>
-    <definedName name="VillaBorghese">'Municipio II'!$F:$F</definedName>
-    <definedName name="VillaggioGiuliano">'Municipio IX'!$B:$B</definedName>
-    <definedName name="VillaggioOlimpico">'Municipio II'!$A:$A</definedName>
-    <definedName name="VillaPamphili">'Municipio XII'!$G:$G</definedName>
+    <definedName name="VillaggioGiuliano">#REF!</definedName>
     <definedName name="XXSettembre">'Municipio I'!$F:$F</definedName>
     <definedName name="ZonaArcheologica">'Municipio I'!$H:$H</definedName>
   </definedNames>
@@ -195,10 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
-  <si>
-    <t>.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Mama Shelter</t>
   </si>
@@ -212,15 +230,9 @@
     <t>200 gradi</t>
   </si>
   <si>
-    <t>Pizza Europa (a viale Europa)</t>
-  </si>
-  <si>
     <t>GianFornaio</t>
   </si>
   <si>
-    <t>Nero lab</t>
-  </si>
-  <si>
     <t>Baccano</t>
   </si>
   <si>
@@ -239,9 +251,6 @@
     <t>Mirto</t>
   </si>
   <si>
-    <t>I meet</t>
-  </si>
-  <si>
     <t>Humus Bistrot</t>
   </si>
   <si>
@@ -365,15 +374,6 @@
     <t>Cantinero</t>
   </si>
   <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Rose</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
     <t>Bolle Cicchetteria di Quartiere</t>
   </si>
   <si>
@@ -402,13 +402,43 @@
   </si>
   <si>
     <t>Tonico Café</t>
+  </si>
+  <si>
+    <t>L'Antico Forno di Piazza Trevi</t>
+  </si>
+  <si>
+    <t>La Zanzara</t>
+  </si>
+  <si>
+    <t>Bukowski's Bar</t>
+  </si>
+  <si>
+    <t>Il Piccolo Diavolo</t>
+  </si>
+  <si>
+    <t>Eat me box</t>
+  </si>
+  <si>
+    <t>Sabotino</t>
+  </si>
+  <si>
+    <t>Fico by Baguetteria</t>
+  </si>
+  <si>
+    <t>Fabrica</t>
+  </si>
+  <si>
+    <t>Imeet</t>
+  </si>
+  <si>
+    <t>Vino e Peperoncino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,14 +447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -459,11 +481,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -779,10 +800,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096AEE50-F225-4C34-A52F-64212300F806}">
   <sheetPr codeName="Foglio1"/>
-  <dimension ref="A1:K39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" activeCellId="1" sqref="K7 K5:K7"/>
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -791,257 +812,283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="3" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="K9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="3" t="s">
+    </row>
+    <row r="39" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -1049,38 +1096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D685743F-E4AD-47BF-AAD5-40282C4D92AD}">
-  <sheetPr codeName="Foglio10"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AADB3E-6CF1-4D30-A128-9C4C905CACE0}">
-  <sheetPr codeName="Foglio11"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECE9EBE-860A-4F73-9FF2-CA2B94D76BDE}">
-  <sheetPr codeName="Foglio12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D71945-C3D1-4983-B785-0E0476EB57DE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1093,17 +1109,50 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63BE152-70F4-487A-B121-195C75F45775}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C30A27-B8D7-4FD4-99CC-2456D12AAE2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9962E75-4A32-4871-BE6A-1F4D83414FEE}">
-  <sheetPr codeName="Foglio13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318488B9-A028-4B9F-803B-67AB18DC5EFB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1145,25 +1194,115 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="25.77734375" style="1"/>
-  </cols>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C260710D-4074-4EAA-9B29-0430C5BE4E2F}">
+  <sheetPr codeName="Foglio17"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D982DFAD-06BB-4C36-A5EF-578C9693F715}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9649BD-DBA7-4BCD-95C0-A88C4572D38A}">
+  <dimension ref="B1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
+    <row r="1" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77A35FA-E522-4473-B22D-847BC8EB3A31}">
-  <sheetPr codeName="Foglio3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84BB501-D318-45EB-90A0-20F4AE3B3AD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32F53D5-22E7-4FF1-BCDF-0B3896C58591}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D2CB6B-ACDE-461F-A603-2FB5FAC8992D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1176,155 +1315,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93536DB-8340-4078-B156-6884236ED6B6}">
-  <sheetPr codeName="Foglio4"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B509A422-2DE0-4987-B1E7-36D50BFF281B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F63257-03FF-4729-B684-5AA863570332}">
-  <sheetPr codeName="Foglio5"/>
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5268815-340F-48D2-A177-2EDFC4DCE03B}">
-  <sheetPr codeName="Foglio6"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535F64DF-6A59-4DE7-99D9-F3A1B7A7F8A7}">
-  <sheetPr codeName="Foglio7"/>
-  <dimension ref="Q1:Q3"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="17:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="17:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="17:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F236AB-73B9-46D6-9CAA-F42BB4A7484E}">
-  <sheetPr codeName="Foglio8"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD63F1E5-72BC-48B9-86F1-7BC00BD6D3E5}">
-  <sheetPr codeName="Foglio9"/>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capobianco\Desktop\Progetto Ltw\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C4285-717C-4F70-9A8E-2C4F3838E856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CBFAFE-AD45-476D-953B-4AFCC01D9A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0B196746-07DA-4CED-8518-28D76236140F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0B196746-07DA-4CED-8518-28D76236140F}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="15" r:id="rId1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="176">
   <si>
     <t>Mama Shelter</t>
   </si>
@@ -664,6 +664,87 @@
   </si>
   <si>
     <t>Il Baretto</t>
+  </si>
+  <si>
+    <t>Parsifal Wine Bar Enoteca</t>
+  </si>
+  <si>
+    <t>Apericena</t>
+  </si>
+  <si>
+    <t>BarCiboeEnoteca</t>
+  </si>
+  <si>
+    <t>Roof Cocktail bar</t>
+  </si>
+  <si>
+    <t>Dervock</t>
+  </si>
+  <si>
+    <t>The Random Bar</t>
+  </si>
+  <si>
+    <t>Deriva Aniene - Restaurant, Cocktail bar, Jungle Garden</t>
+  </si>
+  <si>
+    <t>C1b0 Project</t>
+  </si>
+  <si>
+    <t>Drinketto Bistrot</t>
+  </si>
+  <si>
+    <t>Mezzo Litro</t>
+  </si>
+  <si>
+    <t>Enoteca Mostoqui</t>
+  </si>
+  <si>
+    <t>MoVino</t>
+  </si>
+  <si>
+    <t>Beija Flor cocktail bar</t>
+  </si>
+  <si>
+    <t>Bootleg</t>
+  </si>
+  <si>
+    <t>Svago</t>
+  </si>
+  <si>
+    <t>Comò Bistrot</t>
+  </si>
+  <si>
+    <t>Vintro Bar &amp; Bites</t>
+  </si>
+  <si>
+    <t>Danicla Bar</t>
+  </si>
+  <si>
+    <t>Cucci Bistró</t>
+  </si>
+  <si>
+    <t>Talento Bar Gastronomia</t>
+  </si>
+  <si>
+    <t>GALU BAR</t>
+  </si>
+  <si>
+    <t>Mossi Bar</t>
+  </si>
+  <si>
+    <t>Café Les Amì - Caffè e Cucina secondo natura</t>
+  </si>
+  <si>
+    <t>Flora Roma</t>
+  </si>
+  <si>
+    <t>Bar Plaza Caffetteria</t>
+  </si>
+  <si>
+    <t>Bollicina</t>
+  </si>
+  <si>
+    <t>Blink</t>
   </si>
 </sst>
 </file>
@@ -713,11 +794,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1441,8 +1521,8 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1459,7 +1539,7 @@
       <c r="B1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1739,15 +1819,139 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C260710D-4074-4EAA-9B29-0430C5BE4E2F}">
   <sheetPr codeName="Foglio17"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" activeCellId="1" sqref="B8 B1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="25.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capobianco\Desktop\Progetto Ltw\ProgettoLTW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CBFAFE-AD45-476D-953B-4AFCC01D9A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D4327D-5B72-4C29-9C9B-D3A83719B17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0B196746-07DA-4CED-8518-28D76236140F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{0B196746-07DA-4CED-8518-28D76236140F}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="15" r:id="rId1"/>
@@ -49,14 +49,14 @@
     <definedName name="Aurelio">'Municipio XIII'!$A:$A</definedName>
     <definedName name="AurelioNord">#REF!</definedName>
     <definedName name="AurelioSud">#REF!</definedName>
-    <definedName name="Aventino">'Municipio I'!$C:$C</definedName>
+    <definedName name="Aventino">'Municipio I'!#REF!</definedName>
     <definedName name="Barcaccia">#REF!</definedName>
     <definedName name="Boccea">#REF!</definedName>
     <definedName name="Borghesiana">'Municipio VII'!$D:$D</definedName>
     <definedName name="Bufalotta">#REF!</definedName>
     <definedName name="BuonPastore">#REF!</definedName>
     <definedName name="CasalBertone">#REF!</definedName>
-    <definedName name="CasalBoccone">#REF!</definedName>
+    <definedName name="CasalBoccone">'Municipio III'!$C:$C</definedName>
     <definedName name="CasalBruciato">#REF!</definedName>
     <definedName name="CasalDePazzi">#REF!</definedName>
     <definedName name="CasalottidiBoccea">#REF!</definedName>
@@ -67,7 +67,7 @@
     <definedName name="CastelPorziano">#REF!</definedName>
     <definedName name="CastelRomano">#REF!</definedName>
     <definedName name="Cecchignola">#REF!</definedName>
-    <definedName name="Celio">'Municipio I'!$G:$G</definedName>
+    <definedName name="Celio">'Municipio I'!#REF!</definedName>
     <definedName name="Centocelle">#REF!</definedName>
     <definedName name="CentroStorico">'Municipio I'!$A:$A</definedName>
     <definedName name="Cesano">#REF!</definedName>
@@ -80,8 +80,8 @@
     <definedName name="DellaVittoria">'Municipio XV'!$A:$A</definedName>
     <definedName name="Don_Bosco">'Municipio VII'!$B:$B</definedName>
     <definedName name="DonBosco">#REF!</definedName>
-    <definedName name="Eroi_DellaVittoria">'Municipio I'!$J:$J</definedName>
-    <definedName name="Esquilino">'Municipio I'!$E:$E</definedName>
+    <definedName name="Eroi_DellaVittoria">'Municipio I'!$C:$C</definedName>
+    <definedName name="Esquilino">'Municipio I'!#REF!</definedName>
     <definedName name="Eur">#REF!</definedName>
     <definedName name="Europa">'Municipio IX'!$A:$A</definedName>
     <definedName name="Farnesina">#REF!</definedName>
@@ -142,7 +142,7 @@
     <definedName name="PonteGaleria">#REF!</definedName>
     <definedName name="PortaMedaglia">#REF!</definedName>
     <definedName name="Portuense">'Municipio XI'!$A:$A</definedName>
-    <definedName name="Prati">'Municipio I'!$I:$I</definedName>
+    <definedName name="Prati">'Municipio I'!$B:$B</definedName>
     <definedName name="Prenestino_Centocelle">'Municipio V'!$B:$B</definedName>
     <definedName name="Prenestino_Labicano">'Municipio V'!$A:$A</definedName>
     <definedName name="PrimaPorta">#REF!</definedName>
@@ -168,7 +168,7 @@
     <definedName name="Settecamini">#REF!</definedName>
     <definedName name="Spinaceto">#REF!</definedName>
     <definedName name="Talenti">'Municipio III'!$B:$B</definedName>
-    <definedName name="Testaccio">'Municipio I'!$D:$D</definedName>
+    <definedName name="Testaccio">'Municipio I'!#REF!</definedName>
     <definedName name="Tiburtino_Policlinico">'Municipio II'!#REF!</definedName>
     <definedName name="Tiburtino_SanLorenzo">'Municipio IV'!$A:$A</definedName>
     <definedName name="TiburtinoNord">#REF!</definedName>
@@ -187,7 +187,7 @@
     <definedName name="TorSanGiovanni">#REF!</definedName>
     <definedName name="TorSapienza">#REF!</definedName>
     <definedName name="TorTreTeste">#REF!</definedName>
-    <definedName name="Trastevere">'Municipio I'!$B:$B</definedName>
+    <definedName name="Trastevere">'Municipio I'!#REF!</definedName>
     <definedName name="TreFontane">#REF!</definedName>
     <definedName name="Trieste">'Municipio II'!$D:$D</definedName>
     <definedName name="Trionfale">'Municipio XIV'!$B:$B</definedName>
@@ -203,8 +203,8 @@
     <definedName name="ValMelaina">#REF!</definedName>
     <definedName name="Verano">'Municipio II'!$J:$J</definedName>
     <definedName name="VillaggioGiuliano">#REF!</definedName>
-    <definedName name="XXSettembre">'Municipio I'!$F:$F</definedName>
-    <definedName name="ZonaArcheologica">'Municipio I'!$H:$H</definedName>
+    <definedName name="XXSettembre">'Municipio I'!#REF!</definedName>
+    <definedName name="ZonaArcheologica">'Municipio I'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="194">
   <si>
     <t>Mama Shelter</t>
   </si>
@@ -732,9 +732,6 @@
     <t>Mossi Bar</t>
   </si>
   <si>
-    <t>Café Les Amì - Caffè e Cucina secondo natura</t>
-  </si>
-  <si>
     <t>Flora Roma</t>
   </si>
   <si>
@@ -745,13 +742,70 @@
   </si>
   <si>
     <t>Blink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Café Les Amì </t>
+  </si>
+  <si>
+    <t>TwoFellows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyCaffè </t>
+  </si>
+  <si>
+    <t>Buono Come il Pane</t>
+  </si>
+  <si>
+    <t>Anchimò</t>
+  </si>
+  <si>
+    <t>Malto Matto</t>
+  </si>
+  <si>
+    <t>Ristornate Ugo</t>
+  </si>
+  <si>
+    <t>Lo Zio d'America</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Ciara</t>
+  </si>
+  <si>
+    <t>Senior Jake Cafè</t>
+  </si>
+  <si>
+    <t>Gelato Sicily</t>
+  </si>
+  <si>
+    <t>Favole di Pane</t>
+  </si>
+  <si>
+    <t>Pandolce</t>
+  </si>
+  <si>
+    <t>Gipsy Bar</t>
+  </si>
+  <si>
+    <t>ABC American Bar &amp; Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagliere Toscano </t>
+  </si>
+  <si>
+    <t>Bender</t>
+  </si>
+  <si>
+    <t>CoconutBar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +823,14 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -794,10 +856,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1113,10 +1176,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096AEE50-F225-4C34-A52F-64212300F806}">
   <sheetPr codeName="Foglio1"/>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" activeCellId="1" sqref="J14 J11:J14"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1124,160 +1187,160 @@
     <col min="1" max="16384" width="25.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1400,6 +1463,11 @@
     <row r="40" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1819,10 +1887,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C260710D-4074-4EAA-9B29-0430C5BE4E2F}">
   <sheetPr codeName="Foglio17"/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" activeCellId="1" sqref="B8 B1:B8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C3" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1830,106 +1898,121 @@
     <col min="1" max="16384" width="25.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>164</v>
       </c>
@@ -1949,23 +2032,93 @@
         <v>167</v>
       </c>
     </row>
+    <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D982DFAD-06BB-4C36-A5EF-578C9693F715}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="25.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2028,7 +2181,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2042,7 +2195,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D4327D-5B72-4C29-9C9B-D3A83719B17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E1261D-09E8-489E-AEFA-AA65D4F513D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{0B196746-07DA-4CED-8518-28D76236140F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Municipio I" sheetId="15" r:id="rId1"/>
+    <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
     <sheet name="Municipio II" sheetId="2" r:id="rId2"/>
-    <sheet name="Municipio III" sheetId="17" r:id="rId3"/>
-    <sheet name="Municipio IV" sheetId="18" r:id="rId4"/>
-    <sheet name="Municipio V" sheetId="19" r:id="rId5"/>
-    <sheet name="Municipio VI" sheetId="20" r:id="rId6"/>
-    <sheet name="Municipio VII" sheetId="21" r:id="rId7"/>
-    <sheet name="Municipio VIII" sheetId="22" r:id="rId8"/>
-    <sheet name="Municipio IX" sheetId="23" r:id="rId9"/>
-    <sheet name="Municipio X" sheetId="24" r:id="rId10"/>
-    <sheet name="Municipio XI" sheetId="25" r:id="rId11"/>
-    <sheet name="Municipio XII" sheetId="26" r:id="rId12"/>
-    <sheet name="Municipio XIII" sheetId="27" r:id="rId13"/>
-    <sheet name="Municipio XIV" sheetId="28" r:id="rId14"/>
-    <sheet name="Municipio XV" sheetId="29" r:id="rId15"/>
+    <sheet name="Municipio III" sheetId="3" r:id="rId3"/>
+    <sheet name="Municipio IV" sheetId="4" r:id="rId4"/>
+    <sheet name="Municipio V" sheetId="5" r:id="rId5"/>
+    <sheet name="Municipio VI" sheetId="6" r:id="rId6"/>
+    <sheet name="Municipio VII" sheetId="7" r:id="rId7"/>
+    <sheet name="Municipio VIII" sheetId="8" r:id="rId8"/>
+    <sheet name="Municipio IX" sheetId="9" r:id="rId9"/>
+    <sheet name="Municipio X" sheetId="10" r:id="rId10"/>
+    <sheet name="Municipio XI" sheetId="11" r:id="rId11"/>
+    <sheet name="Municipio XII" sheetId="12" r:id="rId12"/>
+    <sheet name="Municipio XIII" sheetId="13" r:id="rId13"/>
+    <sheet name="Municipio XIV" sheetId="14" r:id="rId14"/>
+    <sheet name="Municipio XV" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="AciliaNord">#REF!</definedName>
@@ -206,37 +206,23 @@
     <definedName name="XXSettembre">'Municipio I'!#REF!</definedName>
     <definedName name="ZonaArcheologica">'Municipio I'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="194">
-  <si>
-    <t>Mama Shelter</t>
-  </si>
-  <si>
-    <t>Vino e Focaccia</t>
-  </si>
-  <si>
-    <t>Fischio</t>
-  </si>
-  <si>
-    <t>200 gradi</t>
-  </si>
-  <si>
-    <t>GianFornaio</t>
-  </si>
-  <si>
-    <t>Baccano</t>
-  </si>
-  <si>
-    <t>Prosciutteria Cantina dei Papi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="217">
+  <si>
+    <t>Quintessenza</t>
+  </si>
+  <si>
+    <t>Prato Chiosco</t>
+  </si>
+  <si>
+    <t>Etilico</t>
+  </si>
+  <si>
+    <t>Vino e Peperoncino</t>
   </si>
   <si>
     <t>Plant 42</t>
@@ -251,554 +237,632 @@
     <t>Mirto</t>
   </si>
   <si>
-    <t>Humus Bistrot</t>
-  </si>
-  <si>
-    <t>Black Market</t>
-  </si>
-  <si>
-    <t>Up sunset bar</t>
-  </si>
-  <si>
-    <t>Salotto 42</t>
-  </si>
-  <si>
-    <t>Cul de Sac</t>
-  </si>
-  <si>
-    <t>Enoteca il Piccolo</t>
-  </si>
-  <si>
-    <t>Taba Café Campo de' Fiori</t>
-  </si>
-  <si>
-    <t>Eretico bistrot</t>
-  </si>
-  <si>
-    <t>Pigna Enoteca di Sardegna</t>
-  </si>
-  <si>
-    <t>Martin Bistrò</t>
-  </si>
-  <si>
-    <t>Bar MART.in.</t>
-  </si>
-  <si>
-    <t>Dafne Garden Cafè</t>
-  </si>
-  <si>
-    <t>Borgo Ripa</t>
-  </si>
-  <si>
-    <t>L'Oasi della Birra</t>
-  </si>
-  <si>
-    <t>Meccanismo</t>
-  </si>
-  <si>
-    <t>VinAllegro</t>
-  </si>
-  <si>
-    <t>Freni e frizioni</t>
-  </si>
-  <si>
-    <t>Mater Pantheon</t>
-  </si>
-  <si>
-    <t>Polpetta Trastevere</t>
-  </si>
-  <si>
-    <t>Il Petruccino</t>
-  </si>
-  <si>
-    <t>Makasar Bistròt</t>
-  </si>
-  <si>
-    <t>Maritozzo Rosso</t>
-  </si>
-  <si>
-    <t>Gatsby Cafè</t>
-  </si>
-  <si>
-    <t>Apotheke Cocktail Bar</t>
-  </si>
-  <si>
-    <t>Hoppiness</t>
-  </si>
-  <si>
-    <t>Downing Square Tartare Bar</t>
-  </si>
-  <si>
-    <t>Lumen Cocktails &amp; Cuisine</t>
-  </si>
-  <si>
-    <t>La Caramella</t>
-  </si>
-  <si>
-    <t>Coming out</t>
-  </si>
-  <si>
-    <t>Colosseum Bar</t>
-  </si>
-  <si>
-    <t>Giulia&amp;Sisto Roma</t>
-  </si>
-  <si>
-    <t>The Court</t>
-  </si>
-  <si>
-    <t>Tram Depot Testaccio</t>
-  </si>
-  <si>
-    <t>Il Testaccino</t>
-  </si>
-  <si>
-    <t>Il Gianfornaio - Testaccio</t>
-  </si>
-  <si>
-    <t>Rosso Eat Drink Stay</t>
-  </si>
-  <si>
-    <t>Casa Manfredi</t>
-  </si>
-  <si>
-    <t>Quintessenza</t>
-  </si>
-  <si>
-    <t>Prato Chiosco</t>
-  </si>
-  <si>
-    <t>Etilico</t>
-  </si>
-  <si>
-    <t>Cantinero</t>
-  </si>
-  <si>
-    <t>Bolle Cicchetteria di Quartiere</t>
-  </si>
-  <si>
-    <t>TBeB</t>
-  </si>
-  <si>
-    <t>Terrazza Borromini</t>
-  </si>
-  <si>
-    <t>Ozio Restaurant</t>
-  </si>
-  <si>
-    <t>Freeda Roma</t>
-  </si>
-  <si>
-    <t>Vinoteca Tempere</t>
-  </si>
-  <si>
-    <t>Rooftop Spritzeria Monti</t>
-  </si>
-  <si>
-    <t>Mazzini Caffetteria - Fergui S.r.l.s.</t>
-  </si>
-  <si>
-    <t>Gran Caffè Mazzini</t>
-  </si>
-  <si>
-    <t>Tonico Café</t>
-  </si>
-  <si>
-    <t>L'Antico Forno di Piazza Trevi</t>
-  </si>
-  <si>
-    <t>La Zanzara</t>
-  </si>
-  <si>
-    <t>Bukowski's Bar</t>
-  </si>
-  <si>
-    <t>Il Piccolo Diavolo</t>
-  </si>
-  <si>
-    <t>Eat me box</t>
-  </si>
-  <si>
-    <t>Sabotino</t>
-  </si>
-  <si>
-    <t>Fico by Baguetteria</t>
-  </si>
-  <si>
-    <t>Fabrica</t>
-  </si>
-  <si>
     <t>Imeet</t>
   </si>
   <si>
-    <t>Vino e Peperoncino</t>
+    <t>The Apartment Bar</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Chiosco San Lorenzo</t>
+  </si>
+  <si>
+    <t>Enoteca Baccano</t>
+  </si>
+  <si>
+    <t>Pankaffè</t>
+  </si>
+  <si>
+    <t>Ciara</t>
+  </si>
+  <si>
+    <t>RoofTop Garden</t>
+  </si>
+  <si>
+    <t>Senior Jag Cafè</t>
+  </si>
+  <si>
+    <t>Officine Beat</t>
+  </si>
+  <si>
+    <t>Gelato Sicily</t>
+  </si>
+  <si>
+    <t>Gli Spritzzati Vino e Cicchetti</t>
+  </si>
+  <si>
+    <t>Favole di Pane</t>
+  </si>
+  <si>
+    <t>Zero Zero 100</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Madi Drink &amp; Food</t>
+  </si>
+  <si>
+    <t>Marmo</t>
+  </si>
+  <si>
+    <t>Celestino</t>
+  </si>
+  <si>
+    <t>Parsifal Wine Bar Enoteca</t>
+  </si>
+  <si>
+    <t>Talento Bar Gastronomia</t>
+  </si>
+  <si>
+    <t>TwoFellows</t>
+  </si>
+  <si>
+    <t>Apericena</t>
+  </si>
+  <si>
+    <t>GALU BAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyCaffè </t>
+  </si>
+  <si>
+    <t>BarCiboeEnoteca</t>
+  </si>
+  <si>
+    <t>Mossi Bar</t>
+  </si>
+  <si>
+    <t>Buono Come il Pane</t>
+  </si>
+  <si>
+    <t>Roof Cocktail bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Café Les Amì </t>
+  </si>
+  <si>
+    <t>Dervock</t>
+  </si>
+  <si>
+    <t>Flora Roma</t>
+  </si>
+  <si>
+    <t>The Random Bar</t>
+  </si>
+  <si>
+    <t>Bar Plaza Caffetteria</t>
+  </si>
+  <si>
+    <t>Deriva Aniene - Restaurant, Cocktail bar, Jungle Garden</t>
+  </si>
+  <si>
+    <t>Bollicina</t>
+  </si>
+  <si>
+    <t>C1b0 Project</t>
+  </si>
+  <si>
+    <t>Blink</t>
+  </si>
+  <si>
+    <t>Drinketto Bistrot</t>
+  </si>
+  <si>
+    <t>Ristornate Ugo</t>
+  </si>
+  <si>
+    <t>Mezzo Litro</t>
+  </si>
+  <si>
+    <t>Lo Zio d'America</t>
+  </si>
+  <si>
+    <t>Enoteca Mostoqui</t>
+  </si>
+  <si>
+    <t>MoVino</t>
+  </si>
+  <si>
+    <t>Beija Flor cocktail bar</t>
+  </si>
+  <si>
+    <t>Bootleg</t>
+  </si>
+  <si>
+    <t>Svago</t>
+  </si>
+  <si>
+    <t>Comò Bistrot</t>
+  </si>
+  <si>
+    <t>Vintro Bar &amp; Bites</t>
+  </si>
+  <si>
+    <t>Danicla Bar</t>
+  </si>
+  <si>
+    <t>Cucci Bistró</t>
+  </si>
+  <si>
+    <t>Anchimò</t>
+  </si>
+  <si>
+    <t>Malto Matto</t>
+  </si>
+  <si>
+    <t>Pandolce</t>
+  </si>
+  <si>
+    <t>Gipsy Bar</t>
+  </si>
+  <si>
+    <t>ABC American Bar &amp; Coffee</t>
+  </si>
+  <si>
+    <t>Bender</t>
+  </si>
+  <si>
+    <t>CoconutBar</t>
   </si>
   <si>
     <t>Duke's</t>
   </si>
   <si>
-    <t>Caffè Parnaso</t>
-  </si>
-  <si>
-    <t>Ercoli 1928</t>
-  </si>
-  <si>
-    <t>Bar - Caffè delle Nazioni ai Parioli</t>
-  </si>
-  <si>
-    <t>Gotha Roma</t>
-  </si>
-  <si>
     <t>Mostò</t>
-  </si>
-  <si>
-    <t>Mediterraneo Ristorante e Giardino</t>
-  </si>
-  <si>
-    <t>Metropolita</t>
-  </si>
-  <si>
-    <t>Etablino - Caffè Due Fontane</t>
-  </si>
-  <si>
-    <t>Frisó</t>
-  </si>
-  <si>
-    <t>Cavatappi enoteca wine bar bistrot</t>
-  </si>
-  <si>
-    <t>Enoteca Flaminio Roma</t>
-  </si>
-  <si>
-    <t>Un Caffè con Te</t>
-  </si>
-  <si>
-    <t>Ristorante "Apoteca - Provviste Alimentari" - Quartiere Flaminio, Roma</t>
-  </si>
-  <si>
-    <t>Jacobà</t>
-  </si>
-  <si>
-    <t>Enoteca Parioli</t>
-  </si>
-  <si>
-    <t>Bambu’s Parioli, Roma</t>
-  </si>
-  <si>
-    <t>Palmerie Parioli</t>
-  </si>
-  <si>
-    <t>Bar Villa Glori</t>
   </si>
   <si>
     <t xml:space="preserve">Dolce caffè
 </t>
   </si>
   <si>
+    <t>Pequeño | Atypical Tapas Bar</t>
+  </si>
+  <si>
+    <t>Momart</t>
+  </si>
+  <si>
+    <t>Carrot's cafè</t>
+  </si>
+  <si>
+    <t>Caffè Parnaso</t>
+  </si>
+  <si>
+    <t>Mediterraneo Ristorante e Giardino</t>
+  </si>
+  <si>
     <t>Molinari Antonio</t>
   </si>
   <si>
+    <t>Garage 33 Food and Wine</t>
+  </si>
+  <si>
+    <t>Fauno 3.0</t>
+  </si>
+  <si>
+    <t>Caffè delle arti</t>
+  </si>
+  <si>
+    <t>Ercoli 1928</t>
+  </si>
+  <si>
+    <t>Metropolita</t>
+  </si>
+  <si>
     <t>PAPY</t>
   </si>
   <si>
+    <t>Misto - Mixology e Cibarie</t>
+  </si>
+  <si>
+    <t>Vesper Cafè Enoteca</t>
+  </si>
+  <si>
+    <t>Treebar</t>
+  </si>
+  <si>
+    <t>Lo Scoiattolo Ada</t>
+  </si>
+  <si>
+    <t>Etablino - Caffè Due Fontane</t>
+  </si>
+  <si>
     <t>KABB</t>
   </si>
   <si>
+    <t>Cheers barEDO</t>
+  </si>
+  <si>
+    <t>Mizzica!</t>
+  </si>
+  <si>
+    <t>Villa Balestra</t>
+  </si>
+  <si>
+    <t>Bar - Caffè delle Nazioni ai Parioli</t>
+  </si>
+  <si>
+    <t>Frisó</t>
+  </si>
+  <si>
     <t>Gallo Bar</t>
   </si>
   <si>
+    <t>Ivy Food Music &amp; Drink</t>
+  </si>
+  <si>
+    <t>Vinoteca Tempere</t>
+  </si>
+  <si>
+    <t>Gotha Roma</t>
+  </si>
+  <si>
+    <t>Cavatappi enoteca wine bar bistrot</t>
+  </si>
+  <si>
     <t>Dietro Le Quinte</t>
   </si>
   <si>
+    <t>Enoteca Graziani</t>
+  </si>
+  <si>
+    <t>Meeting Place</t>
+  </si>
+  <si>
+    <t>Enoteca Parioli</t>
+  </si>
+  <si>
+    <t>Enoteca Flaminio Roma</t>
+  </si>
+  <si>
     <t>La vineria</t>
   </si>
   <si>
+    <t>Crash Roma</t>
+  </si>
+  <si>
+    <t>Mood Cafè</t>
+  </si>
+  <si>
+    <t>Bambu’s Parioli, Roma</t>
+  </si>
+  <si>
+    <t>Un Caffè con Te</t>
+  </si>
+  <si>
     <t>Sesto</t>
   </si>
   <si>
+    <t>Numbs Le Bistro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MùMar Cafè </t>
+  </si>
+  <si>
+    <t>Palmerie Parioli</t>
+  </si>
+  <si>
+    <t>Ristorante "Apoteca - Provviste Alimentari" - Quartiere Flaminio, Roma</t>
+  </si>
+  <si>
     <t>Della Manna</t>
   </si>
   <si>
+    <t>Caprera</t>
+  </si>
+  <si>
+    <t>Papà Non Vuole</t>
+  </si>
+  <si>
+    <t>Bar Villa Glori</t>
+  </si>
+  <si>
+    <t>Jacobà</t>
+  </si>
+  <si>
     <t>New Age Cafè</t>
   </si>
   <si>
-    <t>Lo Scoiattolo Ada</t>
-  </si>
-  <si>
-    <t>Pequeño | Atypical Tapas Bar</t>
-  </si>
-  <si>
-    <t>Garage 33 Food and Wine</t>
-  </si>
-  <si>
-    <t>Misto - Mixology e Cibarie</t>
-  </si>
-  <si>
-    <t>Cheers barEDO</t>
-  </si>
-  <si>
-    <t>Ivy Food Music &amp; Drink</t>
-  </si>
-  <si>
-    <t>Enoteca Graziani</t>
-  </si>
-  <si>
-    <t>Crash Roma</t>
-  </si>
-  <si>
-    <t>Numbs Le Bistro</t>
-  </si>
-  <si>
-    <t>Caprera</t>
-  </si>
-  <si>
     <t>Marziali 1922</t>
   </si>
   <si>
+    <t>You must bistrot</t>
+  </si>
+  <si>
+    <t>Brio Bistrot</t>
+  </si>
+  <si>
     <t>Farina Lab</t>
   </si>
   <si>
+    <t>Mordimi</t>
+  </si>
+  <si>
     <t>Don Nino</t>
   </si>
   <si>
+    <t>Tappa Fissa</t>
+  </si>
+  <si>
     <t>White Rabbit</t>
   </si>
   <si>
+    <t>Abitudini e Follie</t>
+  </si>
+  <si>
     <t>Dolce</t>
   </si>
   <si>
+    <t>Colette</t>
+  </si>
+  <si>
     <t>La Cannoleria Siciliana - Trieste</t>
   </si>
   <si>
+    <t>Spritzzeria</t>
+  </si>
+  <si>
     <t>Amami</t>
   </si>
   <si>
+    <t>Stappò</t>
+  </si>
+  <si>
     <t>Caffè Nemorense</t>
   </si>
   <si>
+    <t>Las Tapas</t>
+  </si>
+  <si>
     <t>Why Not Cafe</t>
   </si>
   <si>
+    <t>Blend</t>
+  </si>
+  <si>
     <t>Gezin Pub</t>
   </si>
   <si>
+    <t>Punto Drink e Pietanze</t>
+  </si>
+  <si>
     <t>Gianfornaio - viale libia</t>
   </si>
   <si>
+    <t>Bodeguita</t>
+  </si>
+  <si>
     <t>&amp;njoy</t>
   </si>
   <si>
-    <t>Momart</t>
-  </si>
-  <si>
-    <t>Fauno 3.0</t>
-  </si>
-  <si>
-    <t>Vesper Cafè Enoteca</t>
-  </si>
-  <si>
-    <t>Mizzica!</t>
-  </si>
-  <si>
-    <t>Meeting Place</t>
-  </si>
-  <si>
-    <t>Mood Cafè</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MùMar Cafè </t>
-  </si>
-  <si>
-    <t>Papà Non Vuole</t>
-  </si>
-  <si>
-    <t>Mordimi</t>
-  </si>
-  <si>
-    <t>Tappa Fissa</t>
-  </si>
-  <si>
-    <t>Abitudini e Follie</t>
-  </si>
-  <si>
-    <t>Colette</t>
-  </si>
-  <si>
-    <t>Spritzzeria</t>
-  </si>
-  <si>
-    <t>Stappò</t>
-  </si>
-  <si>
-    <t>Las Tapas</t>
-  </si>
-  <si>
-    <t>Blend</t>
-  </si>
-  <si>
-    <t>Punto Drink e Pietanze</t>
-  </si>
-  <si>
-    <t>Bodeguita</t>
-  </si>
-  <si>
-    <t>Carrot's cafè</t>
-  </si>
-  <si>
-    <t>Caffè delle arti</t>
-  </si>
-  <si>
-    <t>Treebar</t>
-  </si>
-  <si>
-    <t>Villa Balestra</t>
-  </si>
-  <si>
-    <t>Brio Bistrot</t>
-  </si>
-  <si>
     <t>Seltz Cocktail Bar</t>
   </si>
   <si>
-    <t>You must bistrot</t>
-  </si>
-  <si>
     <t>Il Baretto</t>
   </si>
   <si>
-    <t>Parsifal Wine Bar Enoteca</t>
-  </si>
-  <si>
-    <t>Apericena</t>
-  </si>
-  <si>
-    <t>BarCiboeEnoteca</t>
-  </si>
-  <si>
-    <t>Roof Cocktail bar</t>
-  </si>
-  <si>
-    <t>Dervock</t>
-  </si>
-  <si>
-    <t>The Random Bar</t>
-  </si>
-  <si>
-    <t>Deriva Aniene - Restaurant, Cocktail bar, Jungle Garden</t>
-  </si>
-  <si>
-    <t>C1b0 Project</t>
-  </si>
-  <si>
-    <t>Drinketto Bistrot</t>
-  </si>
-  <si>
-    <t>Mezzo Litro</t>
-  </si>
-  <si>
-    <t>Enoteca Mostoqui</t>
-  </si>
-  <si>
-    <t>MoVino</t>
-  </si>
-  <si>
-    <t>Beija Flor cocktail bar</t>
-  </si>
-  <si>
-    <t>Bootleg</t>
-  </si>
-  <si>
-    <t>Svago</t>
-  </si>
-  <si>
-    <t>Comò Bistrot</t>
-  </si>
-  <si>
-    <t>Vintro Bar &amp; Bites</t>
-  </si>
-  <si>
-    <t>Danicla Bar</t>
-  </si>
-  <si>
-    <t>Cucci Bistró</t>
-  </si>
-  <si>
-    <t>Talento Bar Gastronomia</t>
-  </si>
-  <si>
-    <t>GALU BAR</t>
-  </si>
-  <si>
-    <t>Mossi Bar</t>
-  </si>
-  <si>
-    <t>Flora Roma</t>
-  </si>
-  <si>
-    <t>Bar Plaza Caffetteria</t>
-  </si>
-  <si>
-    <t>Bollicina</t>
-  </si>
-  <si>
-    <t>Blink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Café Les Amì </t>
-  </si>
-  <si>
-    <t>TwoFellows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MyCaffè </t>
-  </si>
-  <si>
-    <t>Buono Come il Pane</t>
-  </si>
-  <si>
-    <t>Anchimò</t>
-  </si>
-  <si>
-    <t>Malto Matto</t>
-  </si>
-  <si>
-    <t>Ristornate Ugo</t>
-  </si>
-  <si>
-    <t>Lo Zio d'America</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Ciara</t>
-  </si>
-  <si>
-    <t>Senior Jake Cafè</t>
-  </si>
-  <si>
-    <t>Gelato Sicily</t>
-  </si>
-  <si>
-    <t>Favole di Pane</t>
-  </si>
-  <si>
-    <t>Pandolce</t>
-  </si>
-  <si>
-    <t>Gipsy Bar</t>
-  </si>
-  <si>
-    <t>ABC American Bar &amp; Coffee</t>
+    <t>Baccano</t>
+  </si>
+  <si>
+    <t>Vino e Focaccia</t>
+  </si>
+  <si>
+    <t>Mama Shelter</t>
+  </si>
+  <si>
+    <t>Prosciutteria Cantina dei Papi</t>
+  </si>
+  <si>
+    <t>Fischio</t>
+  </si>
+  <si>
+    <t>Cantinero</t>
+  </si>
+  <si>
+    <t>Humus Bistrot</t>
+  </si>
+  <si>
+    <t>200 gradi</t>
+  </si>
+  <si>
+    <t>Bolle Cicchetteria di Quartiere</t>
+  </si>
+  <si>
+    <t>Black Market</t>
+  </si>
+  <si>
+    <t>Freeda Roma</t>
+  </si>
+  <si>
+    <t>TBeB</t>
+  </si>
+  <si>
+    <t>Up sunset bar</t>
+  </si>
+  <si>
+    <t>Dafne Garden Cafè</t>
+  </si>
+  <si>
+    <t>Mazzini Caffetteria - Fergui S.r.l.s.</t>
+  </si>
+  <si>
+    <t>Salotto 42</t>
+  </si>
+  <si>
+    <t>GianFornaio</t>
+  </si>
+  <si>
+    <t>Gran Caffè Mazzini</t>
+  </si>
+  <si>
+    <t>Cul de Sac</t>
+  </si>
+  <si>
+    <t>Maritozzo Rosso</t>
+  </si>
+  <si>
+    <t>Tonico Café</t>
+  </si>
+  <si>
+    <t>Enoteca il Piccolo</t>
+  </si>
+  <si>
+    <t>Taba Café Campo de' Fiori</t>
+  </si>
+  <si>
+    <t>Ozio Restaurant</t>
+  </si>
+  <si>
+    <t>Eretico bistrot</t>
+  </si>
+  <si>
+    <t>La Zanzara</t>
+  </si>
+  <si>
+    <t>Mater Pantheon</t>
+  </si>
+  <si>
+    <t>Bukowski's Bar</t>
+  </si>
+  <si>
+    <t>Fabrica</t>
+  </si>
+  <si>
+    <t>Pigna Enoteca di Sardegna</t>
+  </si>
+  <si>
+    <t>Il Piccolo Diavolo</t>
+  </si>
+  <si>
+    <t>Eat me box</t>
+  </si>
+  <si>
+    <t>Martin Bistrò</t>
+  </si>
+  <si>
+    <t>Sabotino</t>
+  </si>
+  <si>
+    <t>Bar MART.in.</t>
+  </si>
+  <si>
+    <t>Fico by Baguetteria</t>
+  </si>
+  <si>
+    <t>Borgo Ripa</t>
+  </si>
+  <si>
+    <t>L'Oasi della Birra</t>
+  </si>
+  <si>
+    <t>Meccanismo</t>
+  </si>
+  <si>
+    <t>Polpetta Trastevere</t>
+  </si>
+  <si>
+    <t>VinAllegro</t>
+  </si>
+  <si>
+    <t>Freni e frizioni</t>
+  </si>
+  <si>
+    <t>Il Petruccino</t>
+  </si>
+  <si>
+    <t>Makasar Bistròt</t>
+  </si>
+  <si>
+    <t>Gatsby Cafè</t>
+  </si>
+  <si>
+    <t>Apotheke Cocktail Bar</t>
+  </si>
+  <si>
+    <t>Hoppiness</t>
+  </si>
+  <si>
+    <t>Downing Square Tartare Bar</t>
+  </si>
+  <si>
+    <t>Lumen Cocktails &amp; Cuisine</t>
+  </si>
+  <si>
+    <t>La Caramella</t>
+  </si>
+  <si>
+    <t>Coming out</t>
+  </si>
+  <si>
+    <t>Colosseum Bar</t>
+  </si>
+  <si>
+    <t>Giulia&amp;Sisto Roma</t>
+  </si>
+  <si>
+    <t>The Court</t>
+  </si>
+  <si>
+    <t>Tram Depot Testaccio</t>
+  </si>
+  <si>
+    <t>Il Testaccino</t>
+  </si>
+  <si>
+    <t>Il Gianfornaio - Testaccio</t>
+  </si>
+  <si>
+    <t>Rosso Eat Drink Stay</t>
+  </si>
+  <si>
+    <t>Casa Manfredi</t>
+  </si>
+  <si>
+    <t>Terrazza Borromini</t>
+  </si>
+  <si>
+    <t>Rooftop Spritzeria Monti</t>
+  </si>
+  <si>
+    <t>L'Antico Forno di Piazza Trevi</t>
   </si>
   <si>
     <t xml:space="preserve">Tagliere Toscano </t>
   </si>
   <si>
-    <t>Bender</t>
-  </si>
-  <si>
-    <t>CoconutBar</t>
+    <t>Monte Street Bistrot</t>
+  </si>
+  <si>
+    <t>Enoteca Al Punto Divino</t>
+  </si>
+  <si>
+    <t>Cottage Aniene food&amp;drink</t>
+  </si>
+  <si>
+    <t>Tavolo13 Bistropub</t>
+  </si>
+  <si>
+    <t>La Flaca</t>
+  </si>
+  <si>
+    <t>Frugale Roma Food Garden</t>
+  </si>
+  <si>
+    <t>CRUMB - bar, tavola calda, bistrò</t>
+  </si>
+  <si>
+    <t>Inside out</t>
+  </si>
+  <si>
+    <t>Knock Street Bar</t>
+  </si>
+  <si>
+    <t>Galante</t>
+  </si>
+  <si>
+    <t>Autoctono bistrot</t>
   </si>
 </sst>
 </file>
@@ -818,17 +882,14 @@
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
+      <color rgb="FF70AD47"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -844,7 +905,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -856,17 +924,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -879,7 +961,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -913,20 +995,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -954,31 +1036,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1006,23 +1071,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1034,503 +1082,531 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096AEE50-F225-4C34-A52F-64212300F806}">
-  <sheetPr codeName="Foglio1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="25.77734375" style="1"/>
+    <col min="1" max="3" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D71945-C3D1-4983-B785-0E0476EB57DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63BE152-70F4-487A-B121-195C75F45775}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C30A27-B8D7-4FD4-99CC-2456D12AAE2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318488B9-A028-4B9F-803B-67AB18DC5EFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1539,582 +1615,725 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878E50C2-8AFB-4B32-B129-BA64DE3EF29B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6EBF7D-AA9E-4B0F-B2CF-8FAF2CB36E19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="25.77734375" style="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F808B082-454E-4962-98AB-BE6CF8AF7856}">
-  <sheetPr codeName="Foglio2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="30.77734375" style="1"/>
-    <col min="4" max="4" width="30.77734375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="30.77734375" style="1"/>
+    <col min="1" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C260710D-4074-4EAA-9B29-0430C5BE4E2F}">
-  <sheetPr codeName="Foglio17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="25.77734375" style="1"/>
+    <col min="1" max="3" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>189</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D982DFAD-06BB-4C36-A5EF-578C9693F715}">
-  <dimension ref="B1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="25.77734375" style="1"/>
+    <col min="1" max="1" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>187</v>
-      </c>
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2123,38 +2342,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9649BD-DBA7-4BCD-95C0-A88C4572D38A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="B1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2163,56 +2386,60 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84BB501-D318-45EB-90A0-20F4AE3B3AD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32F53D5-22E7-4FF1-BCDF-0B3896C58591}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D2CB6B-ACDE-461F-A603-2FB5FAC8992D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B509A422-2DE0-4987-B1E7-36D50BFF281B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E1261D-09E8-489E-AEFA-AA65D4F513D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CE874B-8C9D-497E-AD9E-C8378E513489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="223">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t>Bar Plaza Caffetteria</t>
-  </si>
-  <si>
-    <t>Deriva Aniene - Restaurant, Cocktail bar, Jungle Garden</t>
   </si>
   <si>
     <t>Bollicina</t>
@@ -863,6 +860,27 @@
   </si>
   <si>
     <t>Autoctono bistrot</t>
+  </si>
+  <si>
+    <t>Al Tipico</t>
+  </si>
+  <si>
+    <t>Breakfast Club Roma</t>
+  </si>
+  <si>
+    <t>Green Bar Bistrot</t>
+  </si>
+  <si>
+    <t>Gran Casal</t>
+  </si>
+  <si>
+    <t>Sottocasa food</t>
+  </si>
+  <si>
+    <t>Fornocafè</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deriva Aniene </t>
   </si>
 </sst>
 </file>
@@ -1259,87 +1277,87 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
@@ -1347,10 +1365,10 @@
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -1358,10 +1376,10 @@
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -1369,175 +1387,175 @@
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1670,290 +1688,291 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1969,12 +1988,13 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2018,7 +2038,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2039,114 +2059,114 @@
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2161,14 +2181,14 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.21875" style="3" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -2181,7 +2201,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2192,7 +2212,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2202,6 +2222,9 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2210,6 +2233,9 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -2218,6 +2244,9 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2226,13 +2255,19 @@
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2240,7 +2275,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2248,7 +2286,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2256,17 +2294,17 @@
         <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2274,13 +2312,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CE874B-8C9D-497E-AD9E-C8378E513489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F0B6B-0C60-4E1A-907E-6E85645C95CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="281">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -226,12 +226,6 @@
   </si>
   <si>
     <t>Plant 42</t>
-  </si>
-  <si>
-    <t>Il Veneziano</t>
-  </si>
-  <si>
-    <t>Birra e Spritz</t>
   </si>
   <si>
     <t>Mirto</t>
@@ -881,6 +875,186 @@
   </si>
   <si>
     <t xml:space="preserve">Deriva Aniene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar Sciubba </t>
+  </si>
+  <si>
+    <t>Fucina Alessandrina</t>
+  </si>
+  <si>
+    <t>Pigneto Cafe' &amp; Spirits</t>
+  </si>
+  <si>
+    <t>L’Ombralonga dal Veneziano</t>
+  </si>
+  <si>
+    <t>Gran Caffè Alessandrino Roma</t>
+  </si>
+  <si>
+    <t>Pigneto Quarantuno</t>
+  </si>
+  <si>
+    <t>BirrEspritz</t>
+  </si>
+  <si>
+    <t>Bar Mosca</t>
+  </si>
+  <si>
+    <t>Pigneto 32</t>
+  </si>
+  <si>
+    <t>New Bar Di Rinaldi Marco</t>
+  </si>
+  <si>
+    <t>The street of crocodiles</t>
+  </si>
+  <si>
+    <t>Bar Sonia</t>
+  </si>
+  <si>
+    <t>Cargo al Pigneto</t>
+  </si>
+  <si>
+    <t>Mad Hop</t>
+  </si>
+  <si>
+    <t>Roxy Bar</t>
+  </si>
+  <si>
+    <t>FricciCore</t>
+  </si>
+  <si>
+    <t>IL Quadrifoglio d'oro</t>
+  </si>
+  <si>
+    <t>Quello - Ristorante Cocktail Bar</t>
+  </si>
+  <si>
+    <t>Cama Centocelle</t>
+  </si>
+  <si>
+    <t>AL PICCOLO VINERIA</t>
+  </si>
+  <si>
+    <t>Da Mario al Pigneto</t>
+  </si>
+  <si>
+    <t>Circolo Artenoize</t>
+  </si>
+  <si>
+    <t>Blue Ice</t>
+  </si>
+  <si>
+    <t>Malavite Roma Pigneto</t>
+  </si>
+  <si>
+    <t>Enoteca Peccati</t>
+  </si>
+  <si>
+    <t>Ape Gourmet</t>
+  </si>
+  <si>
+    <t>Vrasciò</t>
+  </si>
+  <si>
+    <t>Evergreen Centocelle</t>
+  </si>
+  <si>
+    <t>Giolli Bar Roma</t>
+  </si>
+  <si>
+    <t>NABIL</t>
+  </si>
+  <si>
+    <t>Woods Lounge Bar - Centocelle</t>
+  </si>
+  <si>
+    <t>Viveri</t>
+  </si>
+  <si>
+    <t>Glu Glu Roma non solo enoteca</t>
+  </si>
+  <si>
+    <t>Magnebevo e sto al Pigneto</t>
+  </si>
+  <si>
+    <t>Matayaya Ristopub</t>
+  </si>
+  <si>
+    <t>Birra +</t>
+  </si>
+  <si>
+    <t>Retrogusto</t>
+  </si>
+  <si>
+    <t>Bar Rosi Pigneto</t>
+  </si>
+  <si>
+    <t>Sparwasser</t>
+  </si>
+  <si>
+    <t>Pluma</t>
+  </si>
+  <si>
+    <t>Spirito Pigneto</t>
+  </si>
+  <si>
+    <t>Al Turacciolo</t>
+  </si>
+  <si>
+    <t>Hopster</t>
+  </si>
+  <si>
+    <t>Un caffettino?</t>
+  </si>
+  <si>
+    <t>Casa Mangiacotti</t>
+  </si>
+  <si>
+    <t>RED.</t>
+  </si>
+  <si>
+    <t>Zazie nel metrò</t>
+  </si>
+  <si>
+    <t>Caffè Point</t>
+  </si>
+  <si>
+    <t>Garden Bar</t>
+  </si>
+  <si>
+    <t>Il Posto Che Non C'era</t>
+  </si>
+  <si>
+    <t>C'era una volta il caffè villa gordiani</t>
+  </si>
+  <si>
+    <t>Du' Parole</t>
+  </si>
+  <si>
+    <t>La Nave Del Luppolo</t>
+  </si>
+  <si>
+    <t>Cocktail Bar Gelateria L'incontro</t>
+  </si>
+  <si>
+    <t>Long Island</t>
+  </si>
+  <si>
+    <t>Mr.Drink Centocelle</t>
+  </si>
+  <si>
+    <t>Eden Bar Roma</t>
+  </si>
+  <si>
+    <t>Kokus Bar</t>
+  </si>
+  <si>
+    <t>Bar 3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRAM </t>
   </si>
 </sst>
 </file>
@@ -942,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -951,16 +1125,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1277,87 +1446,87 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
@@ -1365,10 +1534,10 @@
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -1376,10 +1545,10 @@
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -1387,175 +1556,175 @@
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1857,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1699,280 +1868,280 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2157,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1999,174 +2168,174 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>209</v>
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2195,183 +2364,183 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>212</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="7" t="s">
-        <v>213</v>
+      <c r="B14" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2384,42 +2553,323 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B1:B5"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
+      <c r="C5" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F0B6B-0C60-4E1A-907E-6E85645C95CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56197A7-DBEF-4625-A99E-4431FBC6FD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <definedName name="Romanina">#REF!</definedName>
     <definedName name="SaccoPastore">#REF!</definedName>
     <definedName name="Salario">'Municipio II'!$C:$C</definedName>
-    <definedName name="San_Basilio">'Municipio IV'!$E:$E</definedName>
+    <definedName name="San_Basilio">'Municipio IV'!#REF!</definedName>
     <definedName name="SanBasilio">#REF!</definedName>
     <definedName name="SanLorenzo">'Municipio II'!$H:$H</definedName>
     <definedName name="SantaCornelia">#REF!</definedName>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="288">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>Marmo</t>
-  </si>
-  <si>
-    <t>Celestino</t>
   </si>
   <si>
     <t>Parsifal Wine Bar Enoteca</t>
@@ -1055,6 +1052,30 @@
   </si>
   <si>
     <t xml:space="preserve">KRAM </t>
+  </si>
+  <si>
+    <t>Cumbo Bistrot</t>
+  </si>
+  <si>
+    <t>Cherubini 1966</t>
+  </si>
+  <si>
+    <t>Ecce Vinum - Enoteca e Salsamenteria</t>
+  </si>
+  <si>
+    <t>Voia food, wine &amp; Cocktail bar</t>
+  </si>
+  <si>
+    <t>Caffè del Parco</t>
+  </si>
+  <si>
+    <t>Spiritoso - Il bistrot del quartiere</t>
+  </si>
+  <si>
+    <t>Tavernacolo Roma Kant</t>
+  </si>
+  <si>
+    <t>Bar Celestino</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1150,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1446,87 +1469,87 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
@@ -1534,10 +1557,10 @@
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -1545,10 +1568,10 @@
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -1556,175 +1579,175 @@
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1868,280 +1891,280 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2157,7 +2180,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2168,174 +2191,177 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2348,21 +2374,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="32.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -2370,10 +2397,13 @@
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2381,10 +2411,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -2392,10 +2425,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2403,10 +2439,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2414,10 +2453,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2425,76 +2464,85 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
     </row>
@@ -2553,9 +2601,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2566,303 +2614,302 @@
     <col min="3" max="3" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56197A7-DBEF-4625-A99E-4431FBC6FD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279EAA02-3FFB-46C1-8390-2D86DD6AD50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="287">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>Officine Beat</t>
-  </si>
-  <si>
-    <t>Gelato Sicily</t>
   </si>
   <si>
     <t>Gli Spritzzati Vino e Cicchetti</t>
@@ -1469,87 +1466,87 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
@@ -1557,10 +1554,10 @@
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -1568,10 +1565,10 @@
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -1579,175 +1576,175 @@
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1891,280 +1888,280 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2177,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2191,177 +2188,177 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2377,7 +2374,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B1" sqref="B1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2390,153 +2387,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>282</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
@@ -2588,7 +2594,6 @@
     </row>
     <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2616,300 +2621,300 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279EAA02-3FFB-46C1-8390-2D86DD6AD50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A276D2-E62E-427F-B3B2-7EA1CDCFC69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="288">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1073,6 +1073,9 @@
   </si>
   <si>
     <t>Bar Celestino</t>
+  </si>
+  <si>
+    <t>CIACCO - Emporio</t>
   </si>
 </sst>
 </file>
@@ -2374,7 +2377,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2515,6 +2518,9 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>207</v>
       </c>
@@ -2932,7 +2938,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2947,7 +2955,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A276D2-E62E-427F-B3B2-7EA1CDCFC69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B67DE00-E692-47EF-B29C-9BD885E8796C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="327">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1076,6 +1076,123 @@
   </si>
   <si>
     <t>CIACCO - Emporio</t>
+  </si>
+  <si>
+    <t>Tira e molla</t>
+  </si>
+  <si>
+    <t>Bruni Bistrot Cocktail Bar</t>
+  </si>
+  <si>
+    <t>Salotto Stadlin</t>
+  </si>
+  <si>
+    <t>BAR BRINDISI</t>
+  </si>
+  <si>
+    <t>Le Foodie Café Bistrot</t>
+  </si>
+  <si>
+    <t>Blind Pig</t>
+  </si>
+  <si>
+    <t>VERSO Eatery &amp; Wine Tales</t>
+  </si>
+  <si>
+    <t>C'era una volta il Caffé</t>
+  </si>
+  <si>
+    <t>Piano C - Circolo del vino</t>
+  </si>
+  <si>
+    <t>Sapori e Parole</t>
+  </si>
+  <si>
+    <t>FloW</t>
+  </si>
+  <si>
+    <t>Spigolo</t>
+  </si>
+  <si>
+    <t>Babù</t>
+  </si>
+  <si>
+    <t>malti&amp;mosti</t>
+  </si>
+  <si>
+    <t>Happy Wine Roma</t>
+  </si>
+  <si>
+    <t>Al Solito Posto</t>
+  </si>
+  <si>
+    <t>NaBi Happiness Factory</t>
+  </si>
+  <si>
+    <t>TEO'S - Piazza dell'Alberone</t>
+  </si>
+  <si>
+    <t>Kubla/Khan</t>
+  </si>
+  <si>
+    <t>Quality to Drink</t>
+  </si>
+  <si>
+    <t>Enoteca Bonomi</t>
+  </si>
+  <si>
+    <t>Les Amis</t>
+  </si>
+  <si>
+    <t>QIX drink bar</t>
+  </si>
+  <si>
+    <t>Caffedotto Roma</t>
+  </si>
+  <si>
+    <t>SECONDO GIRO</t>
+  </si>
+  <si>
+    <t>Officina del Sapore</t>
+  </si>
+  <si>
+    <t>Barley Wine</t>
+  </si>
+  <si>
+    <t>Sottosopra</t>
+  </si>
+  <si>
+    <t>Vinum Est Roma</t>
+  </si>
+  <si>
+    <t>La dolce vita</t>
+  </si>
+  <si>
+    <t>Cocktail Bar 23 &amp; Food</t>
+  </si>
+  <si>
+    <t>La Bonora</t>
+  </si>
+  <si>
+    <t>Démodé</t>
+  </si>
+  <si>
+    <t>Rab</t>
+  </si>
+  <si>
+    <t>SpaccioVino Tuscolana</t>
+  </si>
+  <si>
+    <t>Happy Wine </t>
+  </si>
+  <si>
+    <t>Maat Bakery &amp; Bistrot</t>
+  </si>
+  <si>
+    <t>Rquadro</t>
+  </si>
+  <si>
+    <t>Sicilian’s gourmet</t>
   </si>
 </sst>
 </file>
@@ -2376,7 +2493,7 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2615,7 +2732,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2953,15 +3070,365 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="3" customWidth="1"/>
+    <col min="3" max="6" width="25.21875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B67DE00-E692-47EF-B29C-9BD885E8796C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E289F3-B1FC-4B43-A423-D5679E7C316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <definedName name="AppiaAnticaSud">#REF!</definedName>
     <definedName name="Appio">#REF!</definedName>
     <definedName name="Appio_Claudio">'Municipio VII'!$C:$C</definedName>
-    <definedName name="Appio_Latino7">'Municipio VII'!$F:$F</definedName>
+    <definedName name="Appio_Latino7">'Municipio VII'!$E:$E</definedName>
     <definedName name="Appio_Latino8">'Municipio VIII'!$A:$A</definedName>
     <definedName name="Appio_Pignatelli">'Municipio VIII'!$C:$C</definedName>
     <definedName name="AppioClaudio">#REF!</definedName>
@@ -52,7 +52,7 @@
     <definedName name="Aventino">'Municipio I'!#REF!</definedName>
     <definedName name="Barcaccia">#REF!</definedName>
     <definedName name="Boccea">#REF!</definedName>
-    <definedName name="Borghesiana">'Municipio VII'!$D:$D</definedName>
+    <definedName name="Borghesiana">'Municipio VII'!#REF!</definedName>
     <definedName name="Bufalotta">#REF!</definedName>
     <definedName name="BuonPastore">#REF!</definedName>
     <definedName name="CasalBertone">#REF!</definedName>
@@ -121,7 +121,7 @@
     <definedName name="Morena">#REF!</definedName>
     <definedName name="Navigatori">#REF!</definedName>
     <definedName name="Nomentano">'Municipio II'!$E:$E</definedName>
-    <definedName name="NoName">'Municipio VII'!$E:$E</definedName>
+    <definedName name="NoName">'Municipio VII'!$D:$D</definedName>
     <definedName name="Omo">#REF!</definedName>
     <definedName name="OsteriadelCurato">#REF!</definedName>
     <definedName name="OstiaAntica">#REF!</definedName>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="339">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1193,6 +1193,42 @@
   </si>
   <si>
     <t>Sicilian’s gourmet</t>
+  </si>
+  <si>
+    <t>Fermentum</t>
+  </si>
+  <si>
+    <t>spillo</t>
+  </si>
+  <si>
+    <t>Hopificio</t>
+  </si>
+  <si>
+    <t>Rebacco</t>
+  </si>
+  <si>
+    <t>Ristorante Buono Enoteca e Cocktail Bar</t>
+  </si>
+  <si>
+    <t>Dom</t>
+  </si>
+  <si>
+    <t>Due Punto Zero</t>
+  </si>
+  <si>
+    <t>Perlage</t>
+  </si>
+  <si>
+    <t>Mister TAMO</t>
+  </si>
+  <si>
+    <t>Ma SI! Bar Tavola Calda</t>
+  </si>
+  <si>
+    <t>N°1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddha Smile </t>
   </si>
 </sst>
 </file>
@@ -3070,21 +3106,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A26" sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" style="3" customWidth="1"/>
-    <col min="3" max="6" width="25.21875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="4" width="25.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
@@ -3094,13 +3131,14 @@
       <c r="C1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>289</v>
       </c>
@@ -3110,13 +3148,14 @@
       <c r="C2" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>290</v>
       </c>
@@ -3126,13 +3165,14 @@
       <c r="C3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>291</v>
       </c>
@@ -3140,11 +3180,14 @@
       <c r="C4" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>292</v>
       </c>
@@ -3152,11 +3195,14 @@
       <c r="C5" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>293</v>
       </c>
@@ -3164,11 +3210,14 @@
       <c r="C6" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>294</v>
       </c>
@@ -3176,11 +3225,12 @@
       <c r="C7" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>295</v>
       </c>
@@ -3190,19 +3240,19 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>297</v>
       </c>
@@ -3210,9 +3260,8 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>298</v>
       </c>
@@ -3220,9 +3269,8 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>299</v>
       </c>
@@ -3230,9 +3278,8 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>300</v>
       </c>
@@ -3240,9 +3287,8 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>301</v>
       </c>
@@ -3250,9 +3296,8 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>302</v>
       </c>
@@ -3260,9 +3305,8 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>304</v>
       </c>
@@ -3270,9 +3314,8 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>305</v>
       </c>
@@ -3280,9 +3323,8 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>306</v>
       </c>
@@ -3290,9 +3332,8 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>307</v>
       </c>
@@ -3300,9 +3341,8 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>309</v>
       </c>
@@ -3310,9 +3350,8 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>311</v>
       </c>
@@ -3320,9 +3359,8 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>312</v>
       </c>
@@ -3330,9 +3368,8 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>313</v>
       </c>
@@ -3340,9 +3377,8 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>314</v>
       </c>
@@ -3350,9 +3386,8 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>315</v>
       </c>
@@ -3360,71 +3395,64 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E289F3-B1FC-4B43-A423-D5679E7C316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479ABA6E-DD85-44C3-97F4-40C51E0B9B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="341">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1229,6 +1229,12 @@
   </si>
   <si>
     <t xml:space="preserve">Buddha Smile </t>
+  </si>
+  <si>
+    <t>Room 1.10</t>
+  </si>
+  <si>
+    <t>Baguetteria del Fico</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1306,6 +1312,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1611,9 +1618,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1858,50 +1867,58 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>200</v>
       </c>
+    </row>
+    <row r="42" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2330,10 +2347,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2515,6 +2532,11 @@
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3108,9 +3130,7 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479ABA6E-DD85-44C3-97F4-40C51E0B9B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB5CC6-5EF1-4281-9710-8035F958D129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -1241,7 +1241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1267,6 +1267,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1296,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1313,6 +1333,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1620,7 +1647,7 @@
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -3130,349 +3157,351 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="25.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="24.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="25.21875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB5CC6-5EF1-4281-9710-8035F958D129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA70849D-A20E-481C-B9BC-0FF0CDD21077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="431">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1235,13 +1235,283 @@
   </si>
   <si>
     <t>Baguetteria del Fico</t>
+  </si>
+  <si>
+    <t>La Vineria Del Mercato</t>
+  </si>
+  <si>
+    <t>L' Arte Del Caffè</t>
+  </si>
+  <si>
+    <t>L'incontro</t>
+  </si>
+  <si>
+    <t>El Chiringuì - Cocktail Garden</t>
+  </si>
+  <si>
+    <t>Coffee Break 1.0</t>
+  </si>
+  <si>
+    <t>Il Sogno Cocktail Bar</t>
+  </si>
+  <si>
+    <t>Rosy bar due</t>
+  </si>
+  <si>
+    <t>GRAN CAFFE'MASSIMO</t>
+  </si>
+  <si>
+    <t>Enoteca Wine Bar</t>
+  </si>
+  <si>
+    <t>Tabata Bar (Bar Blu)</t>
+  </si>
+  <si>
+    <t>Francesco bar</t>
+  </si>
+  <si>
+    <t>Shock Cafè Bistrot Roma</t>
+  </si>
+  <si>
+    <t>Vitti Srl</t>
+  </si>
+  <si>
+    <t>Bim Bum Bar</t>
+  </si>
+  <si>
+    <t>Buddha Smile Roma</t>
+  </si>
+  <si>
+    <t>Bar Carpe Diem</t>
+  </si>
+  <si>
+    <t>Mister Caffè</t>
+  </si>
+  <si>
+    <t>Il Veliero</t>
+  </si>
+  <si>
+    <t>Bar The Legend Roma</t>
+  </si>
+  <si>
+    <t>Bar Caffe Macao</t>
+  </si>
+  <si>
+    <t>Sagittarius Snack Bar Aperitivi</t>
+  </si>
+  <si>
+    <t>I Portici</t>
+  </si>
+  <si>
+    <t>Caffè Classico</t>
+  </si>
+  <si>
+    <t>The Village</t>
+  </si>
+  <si>
+    <t>Bar Al 23...</t>
+  </si>
+  <si>
+    <t>Cocktail Bar</t>
+  </si>
+  <si>
+    <t>Bar Latteria Scagnetti Alessandra</t>
+  </si>
+  <si>
+    <t>Sasa Bar</t>
+  </si>
+  <si>
+    <t>Dairè bar</t>
+  </si>
+  <si>
+    <t>Enigma Bar</t>
+  </si>
+  <si>
+    <t>Moebius Pub</t>
+  </si>
+  <si>
+    <t>Gasa caffé Roma</t>
+  </si>
+  <si>
+    <t>Bar In piazza</t>
+  </si>
+  <si>
+    <t>ASB Central bar</t>
+  </si>
+  <si>
+    <t>Due Punto Zero - Aperitif Restaurant</t>
+  </si>
+  <si>
+    <t>L'angolo del sorriso</t>
+  </si>
+  <si>
+    <t>Il Cappuccino ristobar</t>
+  </si>
+  <si>
+    <t>Barbuto</t>
+  </si>
+  <si>
+    <t>Rockside</t>
+  </si>
+  <si>
+    <t>Magnoebevo e sto a Ostiense</t>
+  </si>
+  <si>
+    <t>Vinile</t>
+  </si>
+  <si>
+    <t>Biffi</t>
+  </si>
+  <si>
+    <t>Sorso Drink &amp; Food</t>
+  </si>
+  <si>
+    <t>Spritzino Roma</t>
+  </si>
+  <si>
+    <t>S28 Cucina e Miscele</t>
+  </si>
+  <si>
+    <t>Vicino Enoteca</t>
+  </si>
+  <si>
+    <t>Bar Clementi</t>
+  </si>
+  <si>
+    <t>Enoteca 86</t>
+  </si>
+  <si>
+    <t>Bar Milleluci</t>
+  </si>
+  <si>
+    <t>Sideways Vineria Bistrot</t>
+  </si>
+  <si>
+    <t>So &amp; So Bar</t>
+  </si>
+  <si>
+    <t>I Vitelloni</t>
+  </si>
+  <si>
+    <t>The Place by Sacco Bistrot</t>
+  </si>
+  <si>
+    <t>TBar</t>
+  </si>
+  <si>
+    <t>Angeli Rock</t>
+  </si>
+  <si>
+    <t>Why Not</t>
+  </si>
+  <si>
+    <t>La Mescita</t>
+  </si>
+  <si>
+    <t>Bar Bozza</t>
+  </si>
+  <si>
+    <t>Latteria Garbatella</t>
+  </si>
+  <si>
+    <t>Chulos Bar Aperitif &amp; Drink</t>
+  </si>
+  <si>
+    <t>Fulmini e Saette</t>
+  </si>
+  <si>
+    <t>El Chiringuito Libre</t>
+  </si>
+  <si>
+    <t>Modo Ristorante Caffè</t>
+  </si>
+  <si>
+    <t>Tre de Tutto</t>
+  </si>
+  <si>
+    <t>Triplo Cockatail Bar</t>
+  </si>
+  <si>
+    <t>Bar dei Cesaroni</t>
+  </si>
+  <si>
+    <t>Appia Antica Caffè</t>
+  </si>
+  <si>
+    <t>Il Veliero Roma</t>
+  </si>
+  <si>
+    <t>Centosei Coffee House</t>
+  </si>
+  <si>
+    <t>Calici e taglieri</t>
+  </si>
+  <si>
+    <t>Parco Appio</t>
+  </si>
+  <si>
+    <t>Andreotti - Ostiense</t>
+  </si>
+  <si>
+    <t>Caffè Letterario</t>
+  </si>
+  <si>
+    <t>Porto Fluviale</t>
+  </si>
+  <si>
+    <t>Makai Surf &amp; Tiki Bar</t>
+  </si>
+  <si>
+    <t>Hoopside</t>
+  </si>
+  <si>
+    <t>Polpetta Gazometro</t>
+  </si>
+  <si>
+    <t>Queen Makeda</t>
+  </si>
+  <si>
+    <t>Tigelleria Romana - Bistrot &amp; Cafè</t>
+  </si>
+  <si>
+    <t>Enoteca Wine Art</t>
+  </si>
+  <si>
+    <t>L'antagonista Spritz &amp; Cicchetti</t>
+  </si>
+  <si>
+    <t>Doppiozeroo</t>
+  </si>
+  <si>
+    <t>Luce Experience</t>
+  </si>
+  <si>
+    <t>Tuarua</t>
+  </si>
+  <si>
+    <t>Homemade</t>
+  </si>
+  <si>
+    <t>Otium</t>
+  </si>
+  <si>
+    <t>Caffè Baldovinetti</t>
+  </si>
+  <si>
+    <t>Nuvola Enobistrot</t>
+  </si>
+  <si>
+    <t>Mito</t>
+  </si>
+  <si>
+    <t>Figli delle Stelle Garbatella</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,6 +1540,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1285,6 +1562,12 @@
       <u/>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1316,7 +1599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1333,11 +1616,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1647,8 +1937,8 @@
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2376,8 +2666,8 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3138,14 +3428,281 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3157,7 +3714,7 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3514,12 +4071,283 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="12" customWidth="1"/>
+    <col min="3" max="4" width="21" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+    </row>
+    <row r="34" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+    </row>
+    <row r="35" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+    </row>
+    <row r="37" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3531,7 +4359,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA70849D-A20E-481C-B9BC-0FF0CDD21077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12358CF-8AAD-4D7C-92AD-23FB6CA4D4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="453">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1441,9 +1441,6 @@
     <t>Il Veliero Roma</t>
   </si>
   <si>
-    <t>Centosei Coffee House</t>
-  </si>
-  <si>
     <t>Calici e taglieri</t>
   </si>
   <si>
@@ -1505,6 +1502,75 @@
   </si>
   <si>
     <t>Figli delle Stelle Garbatella</t>
+  </si>
+  <si>
+    <t>Prosecco e Polpette Bistrò</t>
+  </si>
+  <si>
+    <t>Tiki bar</t>
+  </si>
+  <si>
+    <t>Orange Caffè</t>
+  </si>
+  <si>
+    <t>Namastè</t>
+  </si>
+  <si>
+    <t>Liszt</t>
+  </si>
+  <si>
+    <t>L'Angolo</t>
+  </si>
+  <si>
+    <t>Frog Lounge Bar</t>
+  </si>
+  <si>
+    <t>Il Gianfornaio - Eur</t>
+  </si>
+  <si>
+    <t>Spaten Lounge Restaurant Since 1962</t>
+  </si>
+  <si>
+    <t>Garden Ristò EUR</t>
+  </si>
+  <si>
+    <t>b place roma</t>
+  </si>
+  <si>
+    <t>Voice Restaurant</t>
+  </si>
+  <si>
+    <t>Gù Gran Caffè Eur</t>
+  </si>
+  <si>
+    <t>BOHOCHICROME</t>
+  </si>
+  <si>
+    <t>Move Natural Food</t>
+  </si>
+  <si>
+    <t>Le Terrazze</t>
+  </si>
+  <si>
+    <t>Casa Novecento</t>
+  </si>
+  <si>
+    <t>Pier Eur</t>
+  </si>
+  <si>
+    <t>Newport Cafè</t>
+  </si>
+  <si>
+    <t>Barcellona Caffè</t>
+  </si>
+  <si>
+    <t>Il Razionale </t>
+  </si>
+  <si>
+    <t>Vicolo 88 Garden</t>
+  </si>
+  <si>
+    <t>Nero.Lab</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1693,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3430,8 +3496,8 @@
   </sheetPr>
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4073,260 +4139,312 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="21" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21" style="12" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" s="11" t="s">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C3" s="11" t="s">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D4" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
     </row>
     <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4357,14 +4475,242 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12358CF-8AAD-4D7C-92AD-23FB6CA4D4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9467DD7-F0F4-4000-B853-4FCDD876CE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <definedName name="AeroportodellUrbe">#REF!</definedName>
     <definedName name="Alessandrina">#REF!</definedName>
     <definedName name="Alessandrino">'Municipio V'!$C:$C</definedName>
+    <definedName name="Altro">'Municipio X'!$A:$A</definedName>
     <definedName name="AppiaAnticaNord">#REF!</definedName>
     <definedName name="AppiaAnticaSud">#REF!</definedName>
     <definedName name="Appio">#REF!</definedName>
@@ -106,6 +107,7 @@
     <definedName name="LaStorta">#REF!</definedName>
     <definedName name="Latino">#REF!</definedName>
     <definedName name="Laurentino">#REF!</definedName>
+    <definedName name="LidoDIOstia_Ponente">'Municipio X'!$B:$B</definedName>
     <definedName name="LucreziaRomana">#REF!</definedName>
     <definedName name="Lunghezza">#REF!</definedName>
     <definedName name="Magliana">#REF!</definedName>
@@ -196,6 +198,7 @@
     <definedName name="Tuscolano">'Municipio VII'!$A:$A</definedName>
     <definedName name="TuscolanoNord">#REF!</definedName>
     <definedName name="TuscolanoSud">#REF!</definedName>
+    <definedName name="UnicoQuartire">'Municipio X'!$A:$A</definedName>
     <definedName name="Universita">'Municipio II'!$I:$I</definedName>
     <definedName name="ValCannuta">#REF!</definedName>
     <definedName name="ValcoSanPaolo">#REF!</definedName>
@@ -211,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="485">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1571,6 +1574,102 @@
   </si>
   <si>
     <t>Nero.Lab</t>
+  </si>
+  <si>
+    <t>Vineria Anzuini</t>
+  </si>
+  <si>
+    <t>Andreotti - Fonte Meravigliosa</t>
+  </si>
+  <si>
+    <t>Bistrò 65</t>
+  </si>
+  <si>
+    <t>OTTIMO Caffè &amp; Cucina</t>
+  </si>
+  <si>
+    <t>Signorvino</t>
+  </si>
+  <si>
+    <t>Puglià_Maximo</t>
+  </si>
+  <si>
+    <t>Latte e Fondente</t>
+  </si>
+  <si>
+    <t>BLounge Restaurant &amp; Cocktail bar</t>
+  </si>
+  <si>
+    <t>Dolceamaro</t>
+  </si>
+  <si>
+    <t>King's Bistrot</t>
+  </si>
+  <si>
+    <t>Tatti bar</t>
+  </si>
+  <si>
+    <t>Flo_flower_bar</t>
+  </si>
+  <si>
+    <t>Bottega del Buongustaio</t>
+  </si>
+  <si>
+    <t>Mawi</t>
+  </si>
+  <si>
+    <t>IL BAR DEI PARCHI</t>
+  </si>
+  <si>
+    <t>Nero Lab Infernetto</t>
+  </si>
+  <si>
+    <t>ICarusO Casalpalocco</t>
+  </si>
+  <si>
+    <t>Convivium</t>
+  </si>
+  <si>
+    <t>19.2 Winebar Enoteca</t>
+  </si>
+  <si>
+    <t>Enoteca Versatile</t>
+  </si>
+  <si>
+    <t>Shilling</t>
+  </si>
+  <si>
+    <t>Open Bar</t>
+  </si>
+  <si>
+    <t>MAGA Wine Bar - Cucina di Mare</t>
+  </si>
+  <si>
+    <t>Sandrino's</t>
+  </si>
+  <si>
+    <t>Mas Magna e Bevi</t>
+  </si>
+  <si>
+    <t>Bahia beach Bar</t>
+  </si>
+  <si>
+    <t>ALWINE</t>
+  </si>
+  <si>
+    <t>Insolito Food &amp; Drink Lido di Ostia</t>
+  </si>
+  <si>
+    <t>Il Sole di Ostia</t>
+  </si>
+  <si>
+    <t>Pachamama Beachbar</t>
+  </si>
+  <si>
+    <t>La Spiaggia </t>
+  </si>
+  <si>
+    <t>V Lounge Beach</t>
   </si>
 </sst>
 </file>
@@ -2313,12 +2412,242 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="30.88671875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4477,8 +4806,8 @@
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4489,172 +4818,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="8" t="s">
+        <v>458</v>
+      </c>
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="8" t="s">
+        <v>459</v>
+      </c>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9467DD7-F0F4-4000-B853-4FCDD876CE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D9E6F0-9095-44CF-96FC-A0F61359A4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="495">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1670,6 +1670,36 @@
   </si>
   <si>
     <t>V Lounge Beach</t>
+  </si>
+  <si>
+    <t>Städlin</t>
+  </si>
+  <si>
+    <t>Stazione 38</t>
+  </si>
+  <si>
+    <t>Enoteca Uva Luppolo E Bistrot</t>
+  </si>
+  <si>
+    <t>I Siciliani</t>
+  </si>
+  <si>
+    <t>SHAVI BAR</t>
+  </si>
+  <si>
+    <t>Bistrot 139</t>
+  </si>
+  <si>
+    <t>Rossibar</t>
+  </si>
+  <si>
+    <t>Bistrot Alleria - La Caffetteria dal 1980</t>
+  </si>
+  <si>
+    <t>Bottega Arconti</t>
+  </si>
+  <si>
+    <t>Bar India</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2444,7 @@
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2657,13 +2687,220 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4807,7 +5044,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D9E6F0-9095-44CF-96FC-A0F61359A4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642C281-6369-41E4-B368-A685A05A5C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="514">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1700,6 +1700,63 @@
   </si>
   <si>
     <t>Bar India</t>
+  </si>
+  <si>
+    <t>Enoteca - I Figli del Vinaio</t>
+  </si>
+  <si>
+    <t>KilometroZERO Coffee, Drink&amp;Food</t>
+  </si>
+  <si>
+    <t>Totem Garden Bar</t>
+  </si>
+  <si>
+    <t>Santa Maria Bar &amp; Bistrot</t>
+  </si>
+  <si>
+    <t>Cafe Vert</t>
+  </si>
+  <si>
+    <t>Matière | Bar-à-vin</t>
+  </si>
+  <si>
+    <t>Massimi Caffè</t>
+  </si>
+  <si>
+    <t>Caffè 104</t>
+  </si>
+  <si>
+    <t>Bar Faustini</t>
+  </si>
+  <si>
+    <t>Off Living Room</t>
+  </si>
+  <si>
+    <t>Giano Bistrot</t>
+  </si>
+  <si>
+    <t>Think Farmer</t>
+  </si>
+  <si>
+    <t>HÉCO Trastevere</t>
+  </si>
+  <si>
+    <t>Gianicolo Garden</t>
+  </si>
+  <si>
+    <t>Friccico Mangia&amp;Bevi Bistrò</t>
+  </si>
+  <si>
+    <t>BistrOUT</t>
+  </si>
+  <si>
+    <t>Il Pozzo since 1973 Roma</t>
+  </si>
+  <si>
+    <t>Cortile Bravetta</t>
+  </si>
+  <si>
+    <t>Bistrot Enoteca ai Colli</t>
   </si>
 </sst>
 </file>
@@ -2445,7 +2502,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2689,8 +2746,8 @@
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2909,12 +2966,223 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.5546875" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5044,7 +5312,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642C281-6369-41E4-B368-A685A05A5C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCF9434-39BF-43CB-A5FC-22C6D5357D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="535">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1757,6 +1757,69 @@
   </si>
   <si>
     <t>Bistrot Enoteca ai Colli</t>
+  </si>
+  <si>
+    <t>Amaro Lobby Bar &amp; Lounge Roma</t>
+  </si>
+  <si>
+    <t>Cresci</t>
+  </si>
+  <si>
+    <t>Corner237</t>
+  </si>
+  <si>
+    <t>Wood San Pietro</t>
+  </si>
+  <si>
+    <t>Cantina Tralerighe</t>
+  </si>
+  <si>
+    <t>Boris Cucina &amp; Salotto</t>
+  </si>
+  <si>
+    <t>Il Pappagallo Bar</t>
+  </si>
+  <si>
+    <t>Hola! Café</t>
+  </si>
+  <si>
+    <t>Fermento Caffè Bistrot</t>
+  </si>
+  <si>
+    <t>La Stanza Roma</t>
+  </si>
+  <si>
+    <t>Interno 7 Food &amp; Drink</t>
+  </si>
+  <si>
+    <t>Bistro Sunseri</t>
+  </si>
+  <si>
+    <t>Quindi ci posti?</t>
+  </si>
+  <si>
+    <t>Santo Pane</t>
+  </si>
+  <si>
+    <t>CASACONSORTI</t>
+  </si>
+  <si>
+    <t>Sa di Tappo Enoteca Winebar</t>
+  </si>
+  <si>
+    <t>Moe's</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>Carnale</t>
+  </si>
+  <si>
+    <t>Squili Bistrò</t>
+  </si>
+  <si>
+    <t>Enoteca dei Desideri</t>
   </si>
 </sst>
 </file>
@@ -2190,12 +2253,13 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2968,8 +3032,8 @@
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2979,133 +3043,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>495</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>496</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>497</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>498</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>499</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>500</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>501</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>502</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>503</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>504</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>505</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>506</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>507</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>508</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>509</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>510</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>511</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>512</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>513</v>
       </c>
       <c r="B19" s="11"/>
@@ -3192,19 +3256,239 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="33.5546875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B1" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCF9434-39BF-43CB-A5FC-22C6D5357D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7523CAC-B4BE-4ACD-8F8C-DB3FF04809BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="539">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1820,6 +1820,18 @@
   </si>
   <si>
     <t>Enoteca dei Desideri</t>
+  </si>
+  <si>
+    <t>VIVI - Le serre</t>
+  </si>
+  <si>
+    <t>VINNICO Wine Bar</t>
+  </si>
+  <si>
+    <t>CHYMEIA - Cocktail Bar &amp; Gastro Miscelazione</t>
+  </si>
+  <si>
+    <t>Café Gourmet</t>
   </si>
 </sst>
 </file>
@@ -2253,7 +2265,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2268,9 +2280,6 @@
       </c>
       <c r="B1" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3258,8 +3267,8 @@
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3500,12 +3509,206 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7523CAC-B4BE-4ACD-8F8C-DB3FF04809BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0961402-DD01-4AF7-9CCC-15F41E377D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="555">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1832,6 +1832,54 @@
   </si>
   <si>
     <t>Café Gourmet</t>
+  </si>
+  <si>
+    <t>Craft House</t>
+  </si>
+  <si>
+    <t>Pane e Salame F.lli Lattanzi – Torrevecchia</t>
+  </si>
+  <si>
+    <t>Piso 35 PUB &amp; Beer Bakery</t>
+  </si>
+  <si>
+    <t>Hic - Vizi &amp; Sfizi</t>
+  </si>
+  <si>
+    <t>Caffè Letterario e Aperitivi Roma | Macondo</t>
+  </si>
+  <si>
+    <t>Bar Sicilia</t>
+  </si>
+  <si>
+    <t>Bar Pasticceria Dolce Oasi</t>
+  </si>
+  <si>
+    <t>Festival Snack Bar</t>
+  </si>
+  <si>
+    <t>Mezzanottetre</t>
+  </si>
+  <si>
+    <t>Enoteca DivinEmozioni</t>
+  </si>
+  <si>
+    <t>Bar Cheri 2</t>
+  </si>
+  <si>
+    <t>Four Sisters</t>
+  </si>
+  <si>
+    <t>Black'n White</t>
+  </si>
+  <si>
+    <t>Foodoo</t>
+  </si>
+  <si>
+    <t>Cafe Porteño</t>
+  </si>
+  <si>
+    <t>Caffè La Terrazza</t>
   </si>
 </sst>
 </file>
@@ -3512,86 +3560,120 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="38" style="12" customWidth="1"/>
     <col min="2" max="2" width="39.5546875" style="12" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>539</v>
+      </c>
       <c r="B1" s="11" t="s">
         <v>140</v>
       </c>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
+      <c r="A2" s="11" t="s">
+        <v>540</v>
+      </c>
       <c r="B2" s="11" t="s">
         <v>535</v>
       </c>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>541</v>
+      </c>
       <c r="B3" s="11" t="s">
         <v>536</v>
       </c>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="B4" s="11" t="s">
         <v>537</v>
       </c>
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>543</v>
+      </c>
       <c r="B5" s="11" t="s">
         <v>538</v>
       </c>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>552</v>
+      </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
+      <c r="A7" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>553</v>
+      </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>554</v>
+      </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="11" t="s">
+        <v>548</v>
+      </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>549</v>
+      </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>550</v>
+      </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="11" t="s">
+        <v>551</v>
+      </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
     </row>
@@ -3710,6 +3792,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5799,7 +5882,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0961402-DD01-4AF7-9CCC-15F41E377D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B74547-C714-49BE-88DD-BBBE2F63E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="559">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1880,6 +1880,18 @@
   </si>
   <si>
     <t>Caffè La Terrazza</t>
+  </si>
+  <si>
+    <t>Fábrica</t>
+  </si>
+  <si>
+    <t>il Covino</t>
+  </si>
+  <si>
+    <t>The Loft</t>
+  </si>
+  <si>
+    <t>Green Bar</t>
   </si>
 </sst>
 </file>
@@ -3560,7 +3572,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:A13"/>
+      <selection activeCell="B13" sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3571,110 +3583,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>535</v>
       </c>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>536</v>
       </c>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>537</v>
       </c>
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>538</v>
       </c>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>552</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>553</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>554</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="8" t="s">
+        <v>555</v>
+      </c>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="8" t="s">
+        <v>556</v>
+      </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="8" t="s">
+        <v>557</v>
+      </c>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="8" t="s">
+        <v>558</v>
+      </c>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/ElencoLuoghi.xlsx
+++ b/ElencoLuoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-CASA\OneDrive - SOGETEL srl\Desktop\UNI_Laura\ProgettoLTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B74547-C714-49BE-88DD-BBBE2F63E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF155262-1C20-488F-A719-05C963C8DBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipio I" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="591">
   <si>
     <t>Quintessenza</t>
   </si>
@@ -1892,6 +1892,102 @@
   </si>
   <si>
     <t>Green Bar</t>
+  </si>
+  <si>
+    <t>Blume Lounge</t>
+  </si>
+  <si>
+    <t>Il Gianfornaio - Ponte Milvio</t>
+  </si>
+  <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>Kytos</t>
+  </si>
+  <si>
+    <t>Kohiba</t>
+  </si>
+  <si>
+    <t>L'Altro Chiosco</t>
+  </si>
+  <si>
+    <t>Jarro il quattordicesimo</t>
+  </si>
+  <si>
+    <t>Bar Pallotta</t>
+  </si>
+  <si>
+    <t>tag pontemilvio</t>
+  </si>
+  <si>
+    <t>Coco Loco</t>
+  </si>
+  <si>
+    <t>Panificio Nazzareno</t>
+  </si>
+  <si>
+    <t>Roma Beer Company</t>
+  </si>
+  <si>
+    <t>QVINTO</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>Enoteca Lucantoni</t>
+  </si>
+  <si>
+    <t>Vigna Stelluti Pasticceria Bar</t>
+  </si>
+  <si>
+    <t>744 Vineria</t>
+  </si>
+  <si>
+    <t>MINE - Enoteca/Aperibar/Bistrobottega</t>
+  </si>
+  <si>
+    <t>Caffè Fleming Roma</t>
+  </si>
+  <si>
+    <t>Profumo Spazio Sensoriale</t>
+  </si>
+  <si>
+    <t>Ricci Salumiere in Roma</t>
+  </si>
+  <si>
+    <t>Messervino - Messer vino Enoteca Roma</t>
+  </si>
+  <si>
+    <t>Non Solo Caffè Cassia</t>
+  </si>
+  <si>
+    <t>Caffè due zero due</t>
+  </si>
+  <si>
+    <t>Madeleine Rome</t>
+  </si>
+  <si>
+    <t>Cocomerino Bistrot </t>
+  </si>
+  <si>
+    <t>Saxò Ristorante</t>
+  </si>
+  <si>
+    <t>I Ruderi Steakhouse</t>
+  </si>
+  <si>
+    <t>Hotel Butterfly</t>
+  </si>
+  <si>
+    <t>Enoteca 'La Cantina XXIX' Ponte Milvio</t>
+  </si>
+  <si>
+    <t>Down Under</t>
+  </si>
+  <si>
+    <t>Irma</t>
   </si>
 </sst>
 </file>
@@ -1986,11 +2082,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2335,292 +2428,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2640,232 +2733,232 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.88671875" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="2" width="30.88671875" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
+      <c r="A38" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2885,208 +2978,208 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="33.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3107,213 +3200,213 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="33.5546875" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+      <c r="A27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
+      <c r="A28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+      <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="10"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
+      <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
+      <c r="A38" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3333,231 +3426,231 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="33.5546875" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="2" width="33.5546875" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3571,244 +3664,244 @@
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" style="12" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="38" style="11" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3821,29 +3914,270 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" style="11" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3867,280 +4201,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4167,182 +4501,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>339</v>
       </c>
     </row>
@@ -4364,224 +4698,224 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4608,304 +4942,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4932,263 +5266,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5210,345 +5544,345 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="25.21875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="24.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="25.21875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5569,325 +5903,325 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="26" style="12" customWidth="1"/>
-    <col min="4" max="4" width="21" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="27.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="26" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="10"/>
     </row>
     <row r="34" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="36" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
     </row>
     <row r="37" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
+      <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
+      <c r="A38" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5907,248 +6241,248 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="30.88671875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
